--- a/Dados/Relatório de Posição 2025-07-28.xlsx
+++ b/Dados/Relatório de Posição 2025-07-28.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C57575-4222-4393-A29E-987C2A4AA6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58955F6A-982D-471D-ABAF-448C59D1427F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="4400" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$M$1395</definedName>
+  </definedNames>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10970" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10970" uniqueCount="1880">
   <si>
     <t>Data</t>
   </si>
@@ -5366,24 +5369,9 @@
     <t>Hedge IPCA (-1)</t>
   </si>
   <si>
-    <t>Hedge DI (9)</t>
-  </si>
-  <si>
     <t>Pré (-4)</t>
   </si>
   <si>
-    <t>Juros Reais (20), Hedge IPCA (-21)</t>
-  </si>
-  <si>
-    <t>Juros Reais (25), Hedge IPCA (-32)</t>
-  </si>
-  <si>
-    <t>Hedge IPCA (-8), Juros Reais (7)</t>
-  </si>
-  <si>
-    <t>Hedge IPCA (-6), Juros Reais (5)</t>
-  </si>
-  <si>
     <t>Hedge DI (1), Hedge IPCA (1)</t>
   </si>
   <si>
@@ -5465,9 +5453,6 @@
     <t>CDI+ (69)</t>
   </si>
   <si>
-    <t>2.95y</t>
-  </si>
-  <si>
     <t>CDI+ (1.886)</t>
   </si>
   <si>
@@ -5501,15 +5486,6 @@
     <t>CDI+ (277)</t>
   </si>
   <si>
-    <t>2.04y</t>
-  </si>
-  <si>
-    <t>3.63y</t>
-  </si>
-  <si>
-    <t>2.28y</t>
-  </si>
-  <si>
     <t>CDI+ (203)</t>
   </si>
   <si>
@@ -5522,9 +5498,6 @@
     <t>CDI+ (184)</t>
   </si>
   <si>
-    <t>1.96y</t>
-  </si>
-  <si>
     <t>CDI+ (185)</t>
   </si>
   <si>
@@ -5540,9 +5513,6 @@
     <t>CDI+ (130)</t>
   </si>
   <si>
-    <t>3.47y</t>
-  </si>
-  <si>
     <t>CDI+ (225)</t>
   </si>
   <si>
@@ -5558,9 +5528,6 @@
     <t>CDI+ (159)</t>
   </si>
   <si>
-    <t>2.43y</t>
-  </si>
-  <si>
     <t>CDI+ (902)</t>
   </si>
   <si>
@@ -5603,12 +5570,6 @@
     <t>CDI+ (116)</t>
   </si>
   <si>
-    <t>2.56y</t>
-  </si>
-  <si>
-    <t>3.09y</t>
-  </si>
-  <si>
     <t>CDI+ (868)</t>
   </si>
   <si>
@@ -5636,9 +5597,6 @@
     <t>CDI+ (531)</t>
   </si>
   <si>
-    <t>0.75y</t>
-  </si>
-  <si>
     <t>CDI+ (94)</t>
   </si>
   <si>
@@ -5648,9 +5606,6 @@
     <t>CDI+ (217)</t>
   </si>
   <si>
-    <t>1.50y</t>
-  </si>
-  <si>
     <t>IPCA+ (1.905)</t>
   </si>
   <si>
@@ -5660,15 +5615,9 @@
     <t>CDI+ (126)</t>
   </si>
   <si>
-    <t>2.78y</t>
-  </si>
-  <si>
     <t>CDI+ (82)</t>
   </si>
   <si>
-    <t>1.02y</t>
-  </si>
-  <si>
     <t>CDI+ (426)</t>
   </si>
   <si>
@@ -5724,6 +5673,9 @@
   </si>
   <si>
     <t>Commodity (5.340)</t>
+  </si>
+  <si>
+    <t>Hedge DI (9), Risco (11)</t>
   </si>
 </sst>
 </file>
@@ -50305,14 +50257,14 @@
         <v>426</v>
       </c>
       <c r="J1188" s="1">
-        <v>16919.161971830999</v>
+        <v>16928.813075116999</v>
       </c>
       <c r="K1188" s="1">
-        <v>7207563</v>
+        <v>7211674.3700000001</v>
       </c>
       <c r="L1188" s="1"/>
       <c r="M1188" s="1">
-        <v>3.4963028415184998</v>
+        <v>3.4971715183141998</v>
       </c>
     </row>
     <row r="1189" spans="1:13" x14ac:dyDescent="0.35">
@@ -50344,14 +50296,14 @@
         <v>249</v>
       </c>
       <c r="J1189" s="1">
-        <v>16990.240000000002</v>
+        <v>16999.555823293002</v>
       </c>
       <c r="K1189" s="1">
-        <v>4230569.76</v>
+        <v>4232889.4000000004</v>
       </c>
       <c r="L1189" s="1"/>
       <c r="M1189" s="1">
-        <v>2.0521989295314</v>
+        <v>2.0526634302061999</v>
       </c>
     </row>
     <row r="1190" spans="1:13" x14ac:dyDescent="0.35">
@@ -50383,14 +50335,14 @@
         <v>80</v>
       </c>
       <c r="J1190" s="1">
-        <v>16997.7425</v>
+        <v>17007.164499999999</v>
       </c>
       <c r="K1190" s="1">
-        <v>1359819.4</v>
+        <v>1360573.16</v>
       </c>
       <c r="L1190" s="1"/>
       <c r="M1190" s="1">
-        <v>3.4556480151361999</v>
+        <v>3.4562490575766001</v>
       </c>
     </row>
     <row r="1191" spans="1:13" x14ac:dyDescent="0.35">
@@ -50422,14 +50374,14 @@
         <v>21</v>
       </c>
       <c r="J1191" s="1">
-        <v>53010.620952381003</v>
+        <v>53041.915714285999</v>
       </c>
       <c r="K1191" s="1">
-        <v>1113223.04</v>
+        <v>1113880.23</v>
       </c>
       <c r="L1191" s="1"/>
       <c r="M1191" s="1">
-        <v>0.54001121849310996</v>
+        <v>0.54015614340187001</v>
       </c>
     </row>
     <row r="1192" spans="1:13" x14ac:dyDescent="0.35">
@@ -50461,14 +50413,14 @@
         <v>3</v>
       </c>
       <c r="J1192" s="1">
-        <v>53010.62</v>
+        <v>53041.916666666999</v>
       </c>
       <c r="K1192" s="1">
-        <v>159031.85999999999</v>
+        <v>159125.75</v>
       </c>
       <c r="L1192" s="1"/>
       <c r="M1192" s="1">
-        <v>0.40414052877347001</v>
+        <v>0.404225395328</v>
       </c>
     </row>
     <row r="1193" spans="1:13" x14ac:dyDescent="0.35">
@@ -50500,14 +50452,14 @@
         <v>1</v>
       </c>
       <c r="J1193" s="1">
-        <v>24601273.559999999</v>
+        <v>24618905.390000001</v>
       </c>
       <c r="K1193" s="1">
-        <v>24601273.559999999</v>
+        <v>24618905.390000001</v>
       </c>
       <c r="L1193" s="1"/>
       <c r="M1193" s="1">
-        <v>11.933784366894001</v>
+        <v>11.938494491671999</v>
       </c>
     </row>
     <row r="1194" spans="1:13" x14ac:dyDescent="0.35">
@@ -50539,14 +50491,14 @@
         <v>1</v>
       </c>
       <c r="J1194" s="1">
-        <v>8766309.2200000007</v>
+        <v>8772592.0600000005</v>
       </c>
       <c r="K1194" s="1">
-        <v>8766309.2200000007</v>
+        <v>8772592.0600000005</v>
       </c>
       <c r="L1194" s="1"/>
       <c r="M1194" s="1">
-        <v>4.2524320405546003</v>
+        <v>4.2541104215193997</v>
       </c>
     </row>
     <row r="1195" spans="1:13" x14ac:dyDescent="0.35">
@@ -50578,14 +50530,14 @@
         <v>1</v>
       </c>
       <c r="J1195" s="1">
-        <v>2445180.38</v>
+        <v>2446932.85</v>
       </c>
       <c r="K1195" s="1">
-        <v>2445180.38</v>
+        <v>2446932.85</v>
       </c>
       <c r="L1195" s="1"/>
       <c r="M1195" s="1">
-        <v>1.1861278369151</v>
+        <v>1.1865959874512999</v>
       </c>
     </row>
     <row r="1196" spans="1:13" x14ac:dyDescent="0.35">
@@ -50614,11 +50566,11 @@
       <c r="I1196" s="1"/>
       <c r="J1196" s="1"/>
       <c r="K1196" s="1">
-        <v>-21265.91</v>
+        <v>-22309.1</v>
       </c>
       <c r="L1196" s="1"/>
       <c r="M1196" s="1">
-        <v>-1.0315839287210001E-2</v>
+        <v>-1.081839599466E-2</v>
       </c>
     </row>
     <row r="1197" spans="1:13" x14ac:dyDescent="0.35">
@@ -50647,11 +50599,11 @@
       <c r="I1197" s="1"/>
       <c r="J1197" s="1"/>
       <c r="K1197" s="1">
-        <v>-4492.62</v>
+        <v>-4643.13</v>
       </c>
       <c r="L1197" s="1"/>
       <c r="M1197" s="1">
-        <v>-1.1416893585840001E-2</v>
+        <v>-1.179489215171E-2</v>
       </c>
     </row>
     <row r="1198" spans="1:13" x14ac:dyDescent="0.35">
@@ -50683,14 +50635,14 @@
         <v>2</v>
       </c>
       <c r="J1198" s="1">
-        <v>951300.255</v>
+        <v>951855.93500000006</v>
       </c>
       <c r="K1198" s="1">
-        <v>1902600.51</v>
+        <v>1903711.87</v>
       </c>
       <c r="L1198" s="1"/>
       <c r="M1198" s="1">
-        <v>0.92292881371796998</v>
+        <v>0.92317076302499002</v>
       </c>
     </row>
     <row r="1199" spans="1:13" x14ac:dyDescent="0.35">
@@ -50722,14 +50674,14 @@
         <v>2</v>
       </c>
       <c r="J1199" s="1">
-        <v>707089.83</v>
+        <v>707494.09</v>
       </c>
       <c r="K1199" s="1">
-        <v>1414179.66</v>
+        <v>1414988.18</v>
       </c>
       <c r="L1199" s="1"/>
       <c r="M1199" s="1">
-        <v>0.68600168512931003</v>
+        <v>0.68617301724444002</v>
       </c>
     </row>
     <row r="1200" spans="1:13" x14ac:dyDescent="0.35">
@@ -50761,14 +50713,14 @@
         <v>1</v>
       </c>
       <c r="J1200" s="1">
-        <v>533462.30000000005</v>
+        <v>533788.6</v>
       </c>
       <c r="K1200" s="1">
-        <v>533462.30000000005</v>
+        <v>533788.6</v>
       </c>
       <c r="L1200" s="1"/>
       <c r="M1200" s="1">
-        <v>0.25877619874192997</v>
+        <v>0.25885116173386002</v>
       </c>
     </row>
     <row r="1201" spans="1:13" x14ac:dyDescent="0.35">
@@ -50800,14 +50752,14 @@
         <v>1</v>
       </c>
       <c r="J1201" s="1">
-        <v>525785.56999999995</v>
+        <v>526099.42000000004</v>
       </c>
       <c r="K1201" s="1">
-        <v>525785.56999999995</v>
+        <v>526099.42000000004</v>
       </c>
       <c r="L1201" s="1"/>
       <c r="M1201" s="1">
-        <v>1.3361552727941</v>
+        <v>1.3364445794055</v>
       </c>
     </row>
     <row r="1202" spans="1:13" x14ac:dyDescent="0.35">
@@ -50839,14 +50791,14 @@
         <v>2</v>
       </c>
       <c r="J1202" s="1">
-        <v>562729.67000000004</v>
+        <v>563059.21</v>
       </c>
       <c r="K1202" s="1">
-        <v>1125459.3400000001</v>
+        <v>1126118.42</v>
       </c>
       <c r="L1202" s="1"/>
       <c r="M1202" s="1">
-        <v>0.54594690167197002</v>
+        <v>0.54609083308803996</v>
       </c>
     </row>
     <row r="1203" spans="1:13" x14ac:dyDescent="0.35">
@@ -50878,14 +50830,14 @@
         <v>1</v>
       </c>
       <c r="J1203" s="1">
-        <v>557094.71</v>
+        <v>557406.77</v>
       </c>
       <c r="K1203" s="1">
-        <v>557094.71</v>
+        <v>557406.77</v>
       </c>
       <c r="L1203" s="1"/>
       <c r="M1203" s="1">
-        <v>0.27023999895220002</v>
+        <v>0.27030436763322002</v>
       </c>
     </row>
     <row r="1204" spans="1:13" x14ac:dyDescent="0.35">
@@ -50917,14 +50869,14 @@
         <v>1</v>
       </c>
       <c r="J1204" s="1">
-        <v>755902.31</v>
+        <v>756363.63</v>
       </c>
       <c r="K1204" s="1">
-        <v>755902.31</v>
+        <v>756363.63</v>
       </c>
       <c r="L1204" s="1"/>
       <c r="M1204" s="1">
-        <v>1.9209406169587</v>
+        <v>1.9213822234833999</v>
       </c>
     </row>
     <row r="1205" spans="1:13" x14ac:dyDescent="0.35">
@@ -50956,14 +50908,14 @@
         <v>1</v>
       </c>
       <c r="J1205" s="1">
-        <v>448355.67</v>
+        <v>448629.51</v>
       </c>
       <c r="K1205" s="1">
-        <v>448355.67</v>
+        <v>448629.51</v>
       </c>
       <c r="L1205" s="1"/>
       <c r="M1205" s="1">
-        <v>1.1393861428294001</v>
+        <v>1.1396486177476</v>
       </c>
     </row>
     <row r="1206" spans="1:13" x14ac:dyDescent="0.35">
@@ -50995,14 +50947,14 @@
         <v>1</v>
       </c>
       <c r="J1206" s="1">
-        <v>332206.87</v>
+        <v>332411.90999999997</v>
       </c>
       <c r="K1206" s="1">
-        <v>332206.87</v>
+        <v>332411.90999999997</v>
       </c>
       <c r="L1206" s="1"/>
       <c r="M1206" s="1">
-        <v>0.84422240992452002</v>
+        <v>0.84442232468024003</v>
       </c>
     </row>
     <row r="1207" spans="1:13" x14ac:dyDescent="0.35">
@@ -51034,14 +50986,14 @@
         <v>1</v>
       </c>
       <c r="J1207" s="1">
-        <v>327495.65000000002</v>
+        <v>327695.74</v>
       </c>
       <c r="K1207" s="1">
-        <v>327495.65000000002</v>
+        <v>327695.74</v>
       </c>
       <c r="L1207" s="1"/>
       <c r="M1207" s="1">
-        <v>0.15886423353911999</v>
+        <v>0.158910143443</v>
       </c>
     </row>
     <row r="1208" spans="1:13" x14ac:dyDescent="0.35">
@@ -51073,14 +51025,14 @@
         <v>3</v>
       </c>
       <c r="J1208" s="1">
-        <v>327495.65333333</v>
+        <v>327695.74</v>
       </c>
       <c r="K1208" s="1">
-        <v>982486.96</v>
+        <v>983087.22</v>
       </c>
       <c r="L1208" s="1"/>
       <c r="M1208" s="1">
-        <v>2.4967500193196002</v>
+        <v>2.4973256694558001</v>
       </c>
     </row>
     <row r="1209" spans="1:13" x14ac:dyDescent="0.35">
@@ -51112,14 +51064,14 @@
         <v>38</v>
       </c>
       <c r="J1209" s="1">
-        <v>58948.863947368001</v>
+        <v>58982.664210526003</v>
       </c>
       <c r="K1209" s="1">
-        <v>2240056.83</v>
+        <v>2241341.2400000002</v>
       </c>
       <c r="L1209" s="1"/>
       <c r="M1209" s="1">
-        <v>1.086624849466</v>
+        <v>1.0868980413145</v>
       </c>
     </row>
     <row r="1210" spans="1:13" x14ac:dyDescent="0.35">
@@ -51151,14 +51103,14 @@
         <v>11</v>
       </c>
       <c r="J1210" s="1">
-        <v>64979.793636363996</v>
+        <v>65017.315454545002</v>
       </c>
       <c r="K1210" s="1">
-        <v>714777.73</v>
+        <v>715190.47</v>
       </c>
       <c r="L1210" s="1"/>
       <c r="M1210" s="1">
-        <v>0.34673015115555</v>
+        <v>0.34681872940052999</v>
       </c>
     </row>
     <row r="1211" spans="1:13" x14ac:dyDescent="0.35">
@@ -51190,14 +51142,14 @@
         <v>1</v>
       </c>
       <c r="J1211" s="1">
-        <v>64979.79</v>
+        <v>65017.32</v>
       </c>
       <c r="K1211" s="1">
-        <v>64979.79</v>
+        <v>65017.32</v>
       </c>
       <c r="L1211" s="1"/>
       <c r="M1211" s="1">
-        <v>3.1520921068369998E-2</v>
+        <v>3.1528977604280001E-2</v>
       </c>
     </row>
     <row r="1212" spans="1:13" x14ac:dyDescent="0.35">
@@ -51229,14 +51181,14 @@
         <v>1</v>
       </c>
       <c r="J1212" s="1">
-        <v>64175.66</v>
+        <v>64212.2</v>
       </c>
       <c r="K1212" s="1">
-        <v>64175.66</v>
+        <v>64212.2</v>
       </c>
       <c r="L1212" s="1"/>
       <c r="M1212" s="1">
-        <v>3.11308471968E-2</v>
+        <v>3.1138549170000002E-2</v>
       </c>
     </row>
     <row r="1213" spans="1:13" x14ac:dyDescent="0.35">
@@ -51268,14 +51220,14 @@
         <v>2</v>
       </c>
       <c r="J1213" s="1">
-        <v>64175.665000000001</v>
+        <v>64212.195</v>
       </c>
       <c r="K1213" s="1">
-        <v>128351.33</v>
+        <v>128424.39</v>
       </c>
       <c r="L1213" s="1"/>
       <c r="M1213" s="1">
-        <v>0.32617347476774999</v>
+        <v>0.3262350676588</v>
       </c>
     </row>
     <row r="1214" spans="1:13" x14ac:dyDescent="0.35">
@@ -51307,14 +51259,14 @@
         <v>1</v>
       </c>
       <c r="J1214" s="1">
-        <v>64979.79</v>
+        <v>65017.32</v>
       </c>
       <c r="K1214" s="1">
-        <v>64979.79</v>
+        <v>65017.32</v>
       </c>
       <c r="L1214" s="1"/>
       <c r="M1214" s="1">
-        <v>0.16513022415879</v>
+        <v>0.16516278402563001</v>
       </c>
     </row>
     <row r="1215" spans="1:13" x14ac:dyDescent="0.35">
@@ -51346,14 +51298,14 @@
         <v>28</v>
       </c>
       <c r="J1215" s="1">
-        <v>58654.021071429001</v>
+        <v>58687.519285713999</v>
       </c>
       <c r="K1215" s="1">
-        <v>1642312.59</v>
+        <v>1643250.54</v>
       </c>
       <c r="L1215" s="1"/>
       <c r="M1215" s="1">
-        <v>0.79666624836697997</v>
+        <v>0.79686473502581001</v>
       </c>
     </row>
     <row r="1216" spans="1:13" x14ac:dyDescent="0.35">
@@ -51385,14 +51337,14 @@
         <v>5</v>
       </c>
       <c r="J1216" s="1">
-        <v>58654.021999999997</v>
+        <v>58687.519999999997</v>
       </c>
       <c r="K1216" s="1">
-        <v>293270.11</v>
+        <v>293437.59999999998</v>
       </c>
       <c r="L1216" s="1"/>
       <c r="M1216" s="1">
-        <v>0.74527416914355005</v>
+        <v>0.74541631297322997</v>
       </c>
     </row>
     <row r="1217" spans="1:13" x14ac:dyDescent="0.35">
@@ -51424,14 +51376,14 @@
         <v>13</v>
       </c>
       <c r="J1217" s="1">
-        <v>74787.207692308002</v>
+        <v>74829.995384615002</v>
       </c>
       <c r="K1217" s="1">
-        <v>972233.7</v>
+        <v>972789.94</v>
       </c>
       <c r="L1217" s="1"/>
       <c r="M1217" s="1">
-        <v>0.47161897134024999</v>
+        <v>0.47173694996860999</v>
       </c>
     </row>
     <row r="1218" spans="1:13" x14ac:dyDescent="0.35">
@@ -51463,14 +51415,14 @@
         <v>42</v>
       </c>
       <c r="J1218" s="1">
-        <v>57641.662619048002</v>
+        <v>57674.714999999997</v>
       </c>
       <c r="K1218" s="1">
-        <v>2420949.83</v>
+        <v>2422338.0299999998</v>
       </c>
       <c r="L1218" s="1"/>
       <c r="M1218" s="1">
-        <v>1.1743738861252999</v>
+        <v>1.1746691727353999</v>
       </c>
     </row>
     <row r="1219" spans="1:13" x14ac:dyDescent="0.35">
@@ -51502,14 +51454,14 @@
         <v>5</v>
       </c>
       <c r="J1219" s="1">
-        <v>59751.576000000001</v>
+        <v>59785.836000000003</v>
       </c>
       <c r="K1219" s="1">
-        <v>298757.88</v>
+        <v>298929.18</v>
       </c>
       <c r="L1219" s="1"/>
       <c r="M1219" s="1">
-        <v>0.14492388408814999</v>
+        <v>0.14496031859645001</v>
       </c>
     </row>
     <row r="1220" spans="1:13" x14ac:dyDescent="0.35">
@@ -51541,14 +51493,14 @@
         <v>5</v>
       </c>
       <c r="J1220" s="1">
-        <v>59751.576000000001</v>
+        <v>59785.836000000003</v>
       </c>
       <c r="K1220" s="1">
-        <v>298757.88</v>
+        <v>298929.18</v>
       </c>
       <c r="L1220" s="1"/>
       <c r="M1220" s="1">
-        <v>0.75921999276397001</v>
+        <v>0.75936651334291005</v>
       </c>
     </row>
     <row r="1221" spans="1:13" x14ac:dyDescent="0.35">
@@ -51580,14 +51532,14 @@
         <v>1</v>
       </c>
       <c r="J1221" s="1">
-        <v>71171.960000000006</v>
+        <v>71211.929999999993</v>
       </c>
       <c r="K1221" s="1">
-        <v>71171.960000000006</v>
+        <v>71211.929999999993</v>
       </c>
       <c r="L1221" s="1"/>
       <c r="M1221" s="1">
-        <v>3.4524668876909997E-2</v>
+        <v>3.4532942085709999E-2</v>
       </c>
     </row>
     <row r="1222" spans="1:13" x14ac:dyDescent="0.35">
@@ -51619,14 +51571,14 @@
         <v>54</v>
       </c>
       <c r="J1222" s="1">
-        <v>75805.610555556006</v>
+        <v>75848.455740741003</v>
       </c>
       <c r="K1222" s="1">
-        <v>4093502.97</v>
+        <v>4095816.61</v>
       </c>
       <c r="L1222" s="1"/>
       <c r="M1222" s="1">
-        <v>1.9857094645965001</v>
+        <v>1.9861924509953</v>
       </c>
     </row>
     <row r="1223" spans="1:13" x14ac:dyDescent="0.35">
@@ -51658,14 +51610,14 @@
         <v>3</v>
       </c>
       <c r="J1223" s="1">
-        <v>55732.436666667003</v>
+        <v>55764.486666666999</v>
       </c>
       <c r="K1223" s="1">
-        <v>167197.31</v>
+        <v>167293.46</v>
       </c>
       <c r="L1223" s="1"/>
       <c r="M1223" s="1">
-        <v>0.42489102040874999</v>
+        <v>0.42497373934947003</v>
       </c>
     </row>
     <row r="1224" spans="1:13" x14ac:dyDescent="0.35">
@@ -51697,14 +51649,14 @@
         <v>57</v>
       </c>
       <c r="J1224" s="1">
-        <v>57747.191754386004</v>
+        <v>57779.910175438999</v>
       </c>
       <c r="K1224" s="1">
-        <v>3291589.93</v>
+        <v>3293454.88</v>
       </c>
       <c r="L1224" s="1"/>
       <c r="M1224" s="1">
-        <v>1.5967110138853999</v>
+        <v>1.5971015900415999</v>
       </c>
     </row>
     <row r="1225" spans="1:13" x14ac:dyDescent="0.35">
@@ -51736,14 +51688,14 @@
         <v>5</v>
       </c>
       <c r="J1225" s="1">
-        <v>57747.192000000003</v>
+        <v>57779.91</v>
       </c>
       <c r="K1225" s="1">
-        <v>288735.96000000002</v>
+        <v>288899.55</v>
       </c>
       <c r="L1225" s="1"/>
       <c r="M1225" s="1">
-        <v>0.73375173723249998</v>
+        <v>0.73388835439162003</v>
       </c>
     </row>
     <row r="1226" spans="1:13" x14ac:dyDescent="0.35">
@@ -51775,14 +51727,14 @@
         <v>17</v>
       </c>
       <c r="J1226" s="1">
-        <v>57762.168823528998</v>
+        <v>57797.211764706</v>
       </c>
       <c r="K1226" s="1">
-        <v>981956.87</v>
+        <v>982552.6</v>
       </c>
       <c r="L1226" s="1"/>
       <c r="M1226" s="1">
-        <v>0.47633556513202002</v>
+        <v>0.47647117599481997</v>
       </c>
     </row>
     <row r="1227" spans="1:13" x14ac:dyDescent="0.35">
@@ -51814,14 +51766,14 @@
         <v>3</v>
       </c>
       <c r="J1227" s="1">
-        <v>57762.17</v>
+        <v>57797.213333332998</v>
       </c>
       <c r="K1227" s="1">
-        <v>173286.51</v>
+        <v>173391.64</v>
       </c>
       <c r="L1227" s="1"/>
       <c r="M1227" s="1">
-        <v>0.44036523109714998</v>
+        <v>0.44046487903793002</v>
       </c>
     </row>
     <row r="1228" spans="1:13" x14ac:dyDescent="0.35">
@@ -51853,14 +51805,14 @@
         <v>3</v>
       </c>
       <c r="J1228" s="1">
-        <v>57177.123333333002</v>
+        <v>57210.503333332999</v>
       </c>
       <c r="K1228" s="1">
-        <v>171531.37</v>
+        <v>171631.51</v>
       </c>
       <c r="L1228" s="1"/>
       <c r="M1228" s="1">
-        <v>0.43590497258246003</v>
+        <v>0.43599364012733</v>
       </c>
     </row>
     <row r="1229" spans="1:13" x14ac:dyDescent="0.35">
@@ -51892,14 +51844,14 @@
         <v>15</v>
       </c>
       <c r="J1229" s="1">
-        <v>58640.618000000002</v>
+        <v>58673.760666667004</v>
       </c>
       <c r="K1229" s="1">
-        <v>879609.27</v>
+        <v>880106.41</v>
       </c>
       <c r="L1229" s="1"/>
       <c r="M1229" s="1">
-        <v>0.42668796514536</v>
+        <v>0.42679174241996998</v>
       </c>
     </row>
     <row r="1230" spans="1:13" x14ac:dyDescent="0.35">
@@ -51931,14 +51883,14 @@
         <v>10</v>
       </c>
       <c r="J1230" s="1">
-        <v>59408.711000000003</v>
+        <v>59442.754999999997</v>
       </c>
       <c r="K1230" s="1">
-        <v>594087.11</v>
+        <v>594427.55000000005</v>
       </c>
       <c r="L1230" s="1"/>
       <c r="M1230" s="1">
-        <v>1.5097269111542</v>
+        <v>1.5100177777173001</v>
       </c>
     </row>
     <row r="1231" spans="1:13" x14ac:dyDescent="0.35">
@@ -51970,14 +51922,14 @@
         <v>2</v>
       </c>
       <c r="J1231" s="1">
-        <v>58640.62</v>
+        <v>58673.760000000002</v>
       </c>
       <c r="K1231" s="1">
-        <v>117281.24</v>
+        <v>117347.52</v>
       </c>
       <c r="L1231" s="1"/>
       <c r="M1231" s="1">
-        <v>0.29804155185512998</v>
+        <v>0.29809661643550001</v>
       </c>
     </row>
     <row r="1232" spans="1:13" x14ac:dyDescent="0.35">
@@ -52009,14 +51961,14 @@
         <v>3</v>
       </c>
       <c r="J1232" s="1">
-        <v>55342.473333333</v>
+        <v>55374.793333333</v>
       </c>
       <c r="K1232" s="1">
-        <v>166027.42000000001</v>
+        <v>166124.38</v>
       </c>
       <c r="L1232" s="1"/>
       <c r="M1232" s="1">
-        <v>0.42191803145417001</v>
+        <v>0.42200393826340998</v>
       </c>
     </row>
     <row r="1233" spans="1:13" x14ac:dyDescent="0.35">
@@ -52048,14 +52000,14 @@
         <v>60</v>
       </c>
       <c r="J1233" s="1">
-        <v>61084.355499999998</v>
+        <v>61118.747499999998</v>
       </c>
       <c r="K1233" s="1">
-        <v>3665061.33</v>
+        <v>3667124.85</v>
       </c>
       <c r="L1233" s="1"/>
       <c r="M1233" s="1">
-        <v>1.7778775353637</v>
+        <v>1.7783061077843001</v>
       </c>
     </row>
     <row r="1234" spans="1:13" x14ac:dyDescent="0.35">
@@ -52087,14 +52039,14 @@
         <v>10</v>
       </c>
       <c r="J1234" s="1">
-        <v>50979.356</v>
+        <v>51011.447999999997</v>
       </c>
       <c r="K1234" s="1">
-        <v>509793.56</v>
+        <v>510114.48</v>
       </c>
       <c r="L1234" s="1"/>
       <c r="M1234" s="1">
-        <v>1.2955154954718</v>
+        <v>1.2958382118578</v>
       </c>
     </row>
     <row r="1235" spans="1:13" x14ac:dyDescent="0.35">
@@ -52126,14 +52078,14 @@
         <v>2</v>
       </c>
       <c r="J1235" s="1">
-        <v>144753.01999999999</v>
+        <v>144838.125</v>
       </c>
       <c r="K1235" s="1">
-        <v>289506.03999999998</v>
+        <v>289676.25</v>
       </c>
       <c r="L1235" s="1"/>
       <c r="M1235" s="1">
-        <v>0.73570870697678004</v>
+        <v>0.73586139687248997</v>
       </c>
     </row>
     <row r="1236" spans="1:13" x14ac:dyDescent="0.35">
@@ -52165,14 +52117,14 @@
         <v>35</v>
       </c>
       <c r="J1236" s="1">
-        <v>64112.294571429004</v>
+        <v>64148.974571428997</v>
       </c>
       <c r="K1236" s="1">
-        <v>2243930.31</v>
+        <v>2245214.11</v>
       </c>
       <c r="L1236" s="1"/>
       <c r="M1236" s="1">
-        <v>1.0885038284121999</v>
+        <v>1.0887761198249</v>
       </c>
     </row>
     <row r="1237" spans="1:13" x14ac:dyDescent="0.35">
@@ -52204,14 +52156,14 @@
         <v>2</v>
       </c>
       <c r="J1237" s="1">
-        <v>64112.294999999998</v>
+        <v>64148.974999999999</v>
       </c>
       <c r="K1237" s="1">
-        <v>128224.59</v>
+        <v>128297.95</v>
       </c>
       <c r="L1237" s="1"/>
       <c r="M1237" s="1">
-        <v>0.32585139609359998</v>
+        <v>0.32591387351527001</v>
       </c>
     </row>
     <row r="1238" spans="1:13" x14ac:dyDescent="0.35">
@@ -52228,23 +52180,23 @@
         <v>1742</v>
       </c>
       <c r="E1238" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F1238" s="1" t="s">
-        <v>1776</v>
+        <v>379</v>
       </c>
       <c r="G1238" s="1" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="H1238" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1238" s="1">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="J1238" s="1"/>
       <c r="K1238" s="1">
-        <v>187.67</v>
+        <v>197.61</v>
       </c>
       <c r="L1238" s="1"/>
       <c r="M1238" s="1"/>
@@ -52263,26 +52215,32 @@
         <v>1742</v>
       </c>
       <c r="E1239" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="F1239" s="1" t="s">
-        <v>1776</v>
+        <v>1879</v>
       </c>
       <c r="G1239" s="1" t="s">
-        <v>57</v>
+        <v>347</v>
       </c>
       <c r="H1239" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1239" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J1239" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="J1239" s="1">
+        <v>82704.19</v>
+      </c>
       <c r="K1239" s="1">
-        <v>99.48</v>
-      </c>
-      <c r="L1239" s="1"/>
-      <c r="M1239" s="1"/>
+        <v>122.49</v>
+      </c>
+      <c r="L1239" s="1">
+        <v>744337.71</v>
+      </c>
+      <c r="M1239" s="1">
+        <v>0.36095315815253998</v>
+      </c>
     </row>
     <row r="1240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1240" s="1" t="s">
@@ -52298,31 +52256,31 @@
         <v>1742</v>
       </c>
       <c r="E1240" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F1240" s="1" t="s">
-        <v>1777</v>
+        <v>35</v>
       </c>
       <c r="G1240" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H1240" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1240" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J1240" s="1">
-        <v>82645.02</v>
+        <v>64878.92</v>
       </c>
       <c r="K1240" s="1">
-        <v>-7.92</v>
+        <v>42.32</v>
       </c>
       <c r="L1240" s="1">
-        <v>743805.18</v>
+        <v>259515.68</v>
       </c>
       <c r="M1240" s="1">
-        <v>0.36081102091930001</v>
+        <v>0.12584745207400999</v>
       </c>
     </row>
     <row r="1241" spans="1:13" x14ac:dyDescent="0.35">
@@ -52339,32 +52297,26 @@
         <v>1742</v>
       </c>
       <c r="E1241" s="1" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="F1241" s="1" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="G1241" s="1" t="s">
-        <v>384</v>
+        <v>55</v>
       </c>
       <c r="H1241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1241" s="1">
-        <v>-4</v>
-      </c>
-      <c r="J1241" s="1">
-        <v>88014.46</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="J1241" s="1"/>
       <c r="K1241" s="1">
-        <v>-43.84</v>
-      </c>
-      <c r="L1241" s="1">
-        <v>-352057.84</v>
-      </c>
-      <c r="M1241" s="1">
-        <v>-0.17077905893723999</v>
-      </c>
+        <v>7.52</v>
+      </c>
+      <c r="L1241" s="1"/>
+      <c r="M1241" s="1"/>
     </row>
     <row r="1242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1242" s="1" t="s">
@@ -52380,26 +52332,32 @@
         <v>1742</v>
       </c>
       <c r="E1242" s="1" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="F1242" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="G1242" s="1" t="s">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="H1242" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1242" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J1242" s="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J1242" s="1">
+        <v>88064.62</v>
+      </c>
       <c r="K1242" s="1">
-        <v>-88.92</v>
-      </c>
-      <c r="L1242" s="1"/>
-      <c r="M1242" s="1"/>
+        <v>-6.56</v>
+      </c>
+      <c r="L1242" s="1">
+        <v>-352258.48</v>
+      </c>
+      <c r="M1242" s="1">
+        <v>-0.17082140154098999</v>
+      </c>
     </row>
     <row r="1243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1243" s="1" t="s">
@@ -52418,7 +52376,7 @@
         <v>323</v>
       </c>
       <c r="F1243" s="1" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="G1243" s="1" t="s">
         <v>324</v>
@@ -52431,7 +52389,7 @@
       </c>
       <c r="J1243" s="1"/>
       <c r="K1243" s="1">
-        <v>-119.71</v>
+        <v>-21.91</v>
       </c>
       <c r="L1243" s="1"/>
       <c r="M1243" s="1"/>
@@ -52450,32 +52408,26 @@
         <v>1742</v>
       </c>
       <c r="E1244" s="1" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="F1244" s="1" t="s">
-        <v>35</v>
+        <v>1776</v>
       </c>
       <c r="G1244" s="1" t="s">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="H1244" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1244" s="1">
-        <v>4</v>
-      </c>
-      <c r="J1244" s="1">
-        <v>64832.6</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="J1244" s="1"/>
       <c r="K1244" s="1">
-        <v>-168.44</v>
-      </c>
-      <c r="L1244" s="1">
-        <v>259330.4</v>
-      </c>
-      <c r="M1244" s="1">
-        <v>0.12579808382002999</v>
-      </c>
+        <v>-33.79</v>
+      </c>
+      <c r="L1244" s="1"/>
+      <c r="M1244" s="1"/>
     </row>
     <row r="1245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1245" s="1" t="s">
@@ -52491,23 +52443,23 @@
         <v>1742</v>
       </c>
       <c r="E1245" s="1" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="F1245" s="1" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="G1245" s="1" t="s">
-        <v>327</v>
+        <v>57</v>
       </c>
       <c r="H1245" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1245" s="1">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="J1245" s="1"/>
       <c r="K1245" s="1">
-        <v>-369.88</v>
+        <v>-78.569999999999993</v>
       </c>
       <c r="L1245" s="1"/>
       <c r="M1245" s="1"/>
@@ -52526,26 +52478,32 @@
         <v>1745</v>
       </c>
       <c r="E1246" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F1246" s="1" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="G1246" s="1" t="s">
-        <v>57</v>
+        <v>356</v>
       </c>
       <c r="H1246" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1246" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J1246" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J1246" s="1">
+        <v>64878.92</v>
+      </c>
       <c r="K1246" s="1">
-        <v>99.48</v>
-      </c>
-      <c r="L1246" s="1"/>
-      <c r="M1246" s="1"/>
+        <v>31.74</v>
+      </c>
+      <c r="L1246" s="1">
+        <v>194636.76</v>
+      </c>
+      <c r="M1246" s="1">
+        <v>0.49443362407630997</v>
+      </c>
     </row>
     <row r="1247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1247" s="1" t="s">
@@ -52564,7 +52522,7 @@
         <v>325</v>
       </c>
       <c r="F1247" s="1" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="G1247" s="1" t="s">
         <v>327</v>
@@ -52577,7 +52535,7 @@
       </c>
       <c r="J1247" s="1"/>
       <c r="K1247" s="1">
-        <v>-52.84</v>
+        <v>28.23</v>
       </c>
       <c r="L1247" s="1"/>
       <c r="M1247" s="1"/>
@@ -52596,13 +52554,13 @@
         <v>1745</v>
       </c>
       <c r="E1248" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F1248" s="1" t="s">
         <v>1776</v>
       </c>
       <c r="G1248" s="1" t="s">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="H1248" s="1" t="s">
         <v>20</v>
@@ -52612,7 +52570,7 @@
       </c>
       <c r="J1248" s="1"/>
       <c r="K1248" s="1">
-        <v>-88.92</v>
+        <v>-21.91</v>
       </c>
       <c r="L1248" s="1"/>
       <c r="M1248" s="1"/>
@@ -52631,13 +52589,13 @@
         <v>1745</v>
       </c>
       <c r="E1249" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F1249" s="1" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="G1249" s="1" t="s">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="H1249" s="1" t="s">
         <v>20</v>
@@ -52647,7 +52605,7 @@
       </c>
       <c r="J1249" s="1"/>
       <c r="K1249" s="1">
-        <v>-119.71</v>
+        <v>-33.79</v>
       </c>
       <c r="L1249" s="1"/>
       <c r="M1249" s="1"/>
@@ -52666,48 +52624,42 @@
         <v>1745</v>
       </c>
       <c r="E1250" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F1250" s="1" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="G1250" s="1" t="s">
-        <v>356</v>
+        <v>57</v>
       </c>
       <c r="H1250" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1250" s="1">
-        <v>3</v>
-      </c>
-      <c r="J1250" s="1">
-        <v>64832.6</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="J1250" s="1"/>
       <c r="K1250" s="1">
-        <v>-126.33</v>
-      </c>
-      <c r="L1250" s="1">
-        <v>194497.8</v>
-      </c>
-      <c r="M1250" s="1">
-        <v>0.49426853045218</v>
-      </c>
+        <v>-78.569999999999993</v>
+      </c>
+      <c r="L1250" s="1"/>
+      <c r="M1250" s="1"/>
     </row>
     <row r="1251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1251" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1251" s="1" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="C1251" s="1" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="D1251" s="1" t="s">
         <v>1742</v>
       </c>
       <c r="E1251" s="1" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="F1251" s="1" t="s">
         <v>35</v>
@@ -52720,14 +52672,14 @@
         <v>14563</v>
       </c>
       <c r="J1251" s="1">
-        <v>91.57</v>
+        <v>91.68</v>
       </c>
       <c r="K1251" s="1">
-        <v>1333533.9099999999</v>
+        <v>1335135.8400000001</v>
       </c>
       <c r="L1251" s="1"/>
       <c r="M1251" s="1">
-        <v>0.64688139372410003</v>
+        <v>0.64745006404505001</v>
       </c>
     </row>
     <row r="1252" spans="1:13" x14ac:dyDescent="0.35">
@@ -52735,19 +52687,19 @@
         <v>13</v>
       </c>
       <c r="B1252" s="1" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="C1252" s="1" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="D1252" s="1" t="s">
         <v>1745</v>
       </c>
       <c r="E1252" s="1" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="F1252" s="1" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="G1252" s="1"/>
       <c r="H1252" s="1" t="s">
@@ -52757,14 +52709,14 @@
         <v>4007</v>
       </c>
       <c r="J1252" s="1">
-        <v>91.57</v>
+        <v>91.68</v>
       </c>
       <c r="K1252" s="1">
-        <v>366920.99</v>
+        <v>367361.76</v>
       </c>
       <c r="L1252" s="1"/>
       <c r="M1252" s="1">
-        <v>0.93243984517747003</v>
+        <v>0.93320504484278</v>
       </c>
     </row>
     <row r="1253" spans="1:13" x14ac:dyDescent="0.35">
@@ -52775,16 +52727,16 @@
         <v>428</v>
       </c>
       <c r="C1253" s="1" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="D1253" s="1" t="s">
         <v>1742</v>
       </c>
       <c r="E1253" s="1" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="F1253" s="1" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="G1253" s="1"/>
       <c r="H1253" s="1" t="s">
@@ -52794,14 +52746,14 @@
         <v>838254</v>
       </c>
       <c r="J1253" s="1">
-        <v>2.2759893467852002</v>
+        <v>2.2666759465938</v>
       </c>
       <c r="K1253" s="1">
-        <v>1907857.1739000999</v>
+        <v>1900050.178936</v>
       </c>
       <c r="L1253" s="1"/>
       <c r="M1253" s="1">
-        <v>0.92547875867590002</v>
+        <v>0.92139509193380997</v>
       </c>
     </row>
     <row r="1254" spans="1:13" x14ac:dyDescent="0.35">
@@ -52821,7 +52773,7 @@
         <v>430</v>
       </c>
       <c r="F1254" s="1" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="G1254" s="1"/>
       <c r="H1254" s="1" t="s">
@@ -52831,14 +52783,14 @@
         <v>10187885</v>
       </c>
       <c r="J1254" s="1">
-        <v>1.5831107714007</v>
+        <v>1.5839665713852</v>
       </c>
       <c r="K1254" s="1">
-        <v>16128550.481292</v>
+        <v>16137269.273117</v>
       </c>
       <c r="L1254" s="1"/>
       <c r="M1254" s="1">
-        <v>7.8237674616669004</v>
+        <v>7.8254779112152004</v>
       </c>
     </row>
     <row r="1255" spans="1:13" x14ac:dyDescent="0.35">
@@ -52858,7 +52810,7 @@
         <v>430</v>
       </c>
       <c r="F1255" s="1" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="G1255" s="1"/>
       <c r="H1255" s="1" t="s">
@@ -52868,14 +52820,14 @@
         <v>1747105</v>
       </c>
       <c r="J1255" s="1">
-        <v>1.5831107108003</v>
+        <v>1.5839665107520999</v>
       </c>
       <c r="K1255" s="1">
-        <v>2765860.6383928</v>
+        <v>2767355.8107675002</v>
       </c>
       <c r="L1255" s="1"/>
       <c r="M1255" s="1">
-        <v>7.0287575138326002</v>
+        <v>7.0298835771126997</v>
       </c>
     </row>
     <row r="1256" spans="1:13" x14ac:dyDescent="0.35">
@@ -52886,16 +52838,16 @@
         <v>428</v>
       </c>
       <c r="C1256" s="1" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="D1256" s="1" t="s">
         <v>1742</v>
       </c>
       <c r="E1256" s="1" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="F1256" s="1" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="G1256" s="1"/>
       <c r="H1256" s="1" t="s">
@@ -52905,14 +52857,14 @@
         <v>666223</v>
       </c>
       <c r="J1256" s="1">
-        <v>2.0529928373925999</v>
+        <v>2.043218743737</v>
       </c>
       <c r="K1256" s="1">
-        <v>1367751.0471061999</v>
+        <v>1361239.3211087</v>
       </c>
       <c r="L1256" s="1"/>
       <c r="M1256" s="1">
-        <v>0.66347971880195</v>
+        <v>0.66010847677675999</v>
       </c>
     </row>
     <row r="1257" spans="1:13" x14ac:dyDescent="0.35">
@@ -52932,7 +52884,7 @@
         <v>435</v>
       </c>
       <c r="F1257" s="1" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="G1257" s="1"/>
       <c r="H1257" s="1" t="s">
@@ -52942,14 +52894,14 @@
         <v>8608267</v>
       </c>
       <c r="J1257" s="1">
-        <v>1.8746761049239</v>
+        <v>1.8757214049266</v>
       </c>
       <c r="K1257" s="1">
-        <v>16137712.449704999</v>
+        <v>16146710.671224</v>
       </c>
       <c r="L1257" s="1"/>
       <c r="M1257" s="1">
-        <v>7.8282118232627997</v>
+        <v>7.8300563470759004</v>
       </c>
     </row>
     <row r="1258" spans="1:13" x14ac:dyDescent="0.35">
@@ -52969,7 +52921,7 @@
         <v>435</v>
       </c>
       <c r="F1258" s="1" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="G1258" s="1"/>
       <c r="H1258" s="1" t="s">
@@ -52979,14 +52931,14 @@
         <v>2924749</v>
       </c>
       <c r="J1258" s="1">
-        <v>1.8746763162841</v>
+        <v>1.8757216164046999</v>
       </c>
       <c r="K1258" s="1">
-        <v>5482957.6813757</v>
+        <v>5486014.9218581002</v>
       </c>
       <c r="L1258" s="1"/>
       <c r="M1258" s="1">
-        <v>13.933594291066999</v>
+        <v>13.936063462786</v>
       </c>
     </row>
     <row r="1259" spans="1:13" x14ac:dyDescent="0.35">
@@ -53006,7 +52958,7 @@
         <v>437</v>
       </c>
       <c r="F1259" s="1" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="G1259" s="1"/>
       <c r="H1259" s="1" t="s">
@@ -53016,14 +52968,14 @@
         <v>3240699</v>
       </c>
       <c r="J1259" s="1">
-        <v>4.9568795325475001</v>
+        <v>4.9598362322687004</v>
       </c>
       <c r="K1259" s="1">
-        <v>16063754.544247</v>
+        <v>16073336.318077</v>
       </c>
       <c r="L1259" s="1"/>
       <c r="M1259" s="1">
-        <v>7.7923357254744001</v>
+        <v>7.7944747768560001</v>
       </c>
     </row>
     <row r="1260" spans="1:13" x14ac:dyDescent="0.35">
@@ -53043,7 +52995,7 @@
         <v>437</v>
       </c>
       <c r="F1260" s="1" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="G1260" s="1"/>
       <c r="H1260" s="1" t="s">
@@ -53053,14 +53005,14 @@
         <v>489530</v>
       </c>
       <c r="J1260" s="1">
-        <v>4.9568813010898003</v>
+        <v>4.9598380018658998</v>
       </c>
       <c r="K1260" s="1">
-        <v>2426542.1033224999</v>
+        <v>2427989.4970534001</v>
       </c>
       <c r="L1260" s="1"/>
       <c r="M1260" s="1">
-        <v>6.1664625486229001</v>
+        <v>6.1677950570454998</v>
       </c>
     </row>
     <row r="1261" spans="1:13" x14ac:dyDescent="0.35">
@@ -53080,7 +53032,7 @@
         <v>443</v>
       </c>
       <c r="F1261" s="1" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="G1261" s="1"/>
       <c r="H1261" s="1" t="s">
@@ -53090,14 +53042,14 @@
         <v>3772553</v>
       </c>
       <c r="J1261" s="1">
-        <v>1.5824052310214001</v>
+        <v>1.5837785109963001</v>
       </c>
       <c r="K1261" s="1">
-        <v>5969707.6015055003</v>
+        <v>5974888.3729943996</v>
       </c>
       <c r="L1261" s="1"/>
       <c r="M1261" s="1">
-        <v>2.8958339524993999</v>
+        <v>2.8974144381871998</v>
       </c>
     </row>
     <row r="1262" spans="1:13" x14ac:dyDescent="0.35">
@@ -53117,7 +53069,7 @@
         <v>443</v>
       </c>
       <c r="F1262" s="1" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="G1262" s="1"/>
       <c r="H1262" s="1" t="s">
@@ -53127,14 +53079,14 @@
         <v>573750</v>
       </c>
       <c r="J1262" s="1">
-        <v>1.5824054067646001</v>
+        <v>1.5837786868918999</v>
       </c>
       <c r="K1262" s="1">
-        <v>907905.10213115998</v>
+        <v>908693.02160424006</v>
       </c>
       <c r="L1262" s="1"/>
       <c r="M1262" s="1">
-        <v>2.3072184910081002</v>
+        <v>2.3083429042110999</v>
       </c>
     </row>
     <row r="1263" spans="1:13" x14ac:dyDescent="0.35">
@@ -53142,19 +53094,19 @@
         <v>13</v>
       </c>
       <c r="B1263" s="1" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="C1263" s="1" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="D1263" s="1" t="s">
         <v>1742</v>
       </c>
       <c r="E1263" s="1" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="F1263" s="1" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="G1263" s="1"/>
       <c r="H1263" s="1" t="s">
@@ -53164,14 +53116,14 @@
         <v>991120</v>
       </c>
       <c r="J1263" s="1">
-        <v>2.7462172020509001</v>
+        <v>2.7066000063490998</v>
       </c>
       <c r="K1263" s="1">
-        <v>2721830.7932966999</v>
+        <v>2682565.3982927999</v>
       </c>
       <c r="L1263" s="1"/>
       <c r="M1263" s="1">
-        <v>1.3203276525970999</v>
+        <v>1.3008617452211</v>
       </c>
     </row>
     <row r="1264" spans="1:13" x14ac:dyDescent="0.35">
@@ -53179,16 +53131,16 @@
         <v>13</v>
       </c>
       <c r="B1264" s="1" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="C1264" s="1" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="D1264" s="1" t="s">
         <v>1745</v>
       </c>
       <c r="E1264" s="1" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="F1264" s="1" t="s">
         <v>35</v>
@@ -53201,14 +53153,14 @@
         <v>203245</v>
       </c>
       <c r="J1264" s="1">
-        <v>2.7462206625138998</v>
+        <v>2.7066034168912001</v>
       </c>
       <c r="K1264" s="1">
-        <v>558155.61855263996</v>
+        <v>550103.61146605003</v>
       </c>
       <c r="L1264" s="1"/>
       <c r="M1264" s="1">
-        <v>1.4184158244753</v>
+        <v>1.3974221633910999</v>
       </c>
     </row>
     <row r="1265" spans="1:13" x14ac:dyDescent="0.35">
@@ -53228,24 +53180,24 @@
         <v>455</v>
       </c>
       <c r="F1265" s="1" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="G1265" s="1"/>
       <c r="H1265" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1265" s="1">
-        <v>2455893</v>
+        <v>2455691</v>
       </c>
       <c r="J1265" s="1">
-        <v>15.556899881733001</v>
+        <v>15.565465051792</v>
       </c>
       <c r="K1265" s="1">
-        <v>38206081.521250002</v>
+        <v>38223972.438500002</v>
       </c>
       <c r="L1265" s="1"/>
       <c r="M1265" s="1">
-        <v>18.533314434577999</v>
+        <v>18.536026568924001</v>
       </c>
     </row>
     <row r="1266" spans="1:13" x14ac:dyDescent="0.35">
@@ -53265,7 +53217,7 @@
         <v>455</v>
       </c>
       <c r="F1266" s="1" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="G1266" s="1"/>
       <c r="H1266" s="1" t="s">
@@ -53275,14 +53227,14 @@
         <v>278682</v>
       </c>
       <c r="J1266" s="1">
-        <v>15.556882247560001</v>
+        <v>15.565448957674</v>
       </c>
       <c r="K1266" s="1">
-        <v>4335423.0585145997</v>
+        <v>4337810.4464226002</v>
       </c>
       <c r="L1266" s="1"/>
       <c r="M1266" s="1">
-        <v>11.01741605314</v>
+        <v>11.019292242539001</v>
       </c>
     </row>
     <row r="1267" spans="1:13" x14ac:dyDescent="0.35">
@@ -53296,7 +53248,7 @@
         <v>456</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="E1267" s="1" t="s">
         <v>457</v>
@@ -53345,14 +53297,14 @@
         <v>61</v>
       </c>
       <c r="J1268" s="1">
-        <v>71249.428745557001</v>
+        <v>71297.346295255003</v>
       </c>
       <c r="K1268" s="1">
-        <v>4346215.1534789</v>
+        <v>4349138.1240106001</v>
       </c>
       <c r="L1268" s="1"/>
       <c r="M1268" s="1">
-        <v>2.1082971305223999</v>
+        <v>2.1090361539028</v>
       </c>
     </row>
     <row r="1269" spans="1:13" x14ac:dyDescent="0.35">
@@ -53382,14 +53334,14 @@
         <v>14</v>
       </c>
       <c r="J1269" s="1">
-        <v>69845.643662985007</v>
+        <v>69892.617121724994</v>
       </c>
       <c r="K1269" s="1">
-        <v>977839.01128178998</v>
+        <v>978496.63970416004</v>
       </c>
       <c r="L1269" s="1"/>
       <c r="M1269" s="1">
-        <v>2.4849383958329998</v>
+        <v>2.4856642687404999</v>
       </c>
     </row>
     <row r="1270" spans="1:13" x14ac:dyDescent="0.35">
@@ -53421,14 +53373,14 @@
         <v>1649</v>
       </c>
       <c r="J1270" s="1">
-        <v>1064.8114849999999</v>
+        <v>1065.482242</v>
       </c>
       <c r="K1270" s="1">
-        <v>1755874.138765</v>
+        <v>1756980.2170579999</v>
       </c>
       <c r="L1270" s="1"/>
       <c r="M1270" s="1">
-        <v>0.85175360114271004</v>
+        <v>0.85201589230057995</v>
       </c>
     </row>
     <row r="1271" spans="1:13" x14ac:dyDescent="0.35">
@@ -53460,14 +53412,14 @@
         <v>314</v>
       </c>
       <c r="J1271" s="1">
-        <v>1064.8114849999999</v>
+        <v>1065.482242</v>
       </c>
       <c r="K1271" s="1">
-        <v>334350.80628999998</v>
+        <v>334561.42398800002</v>
       </c>
       <c r="L1271" s="1"/>
       <c r="M1271" s="1">
-        <v>0.84967069900254999</v>
+        <v>0.84988271145964001</v>
       </c>
     </row>
     <row r="1272" spans="1:13" x14ac:dyDescent="0.35">
@@ -53499,14 +53451,14 @@
         <v>211</v>
       </c>
       <c r="J1272" s="1">
-        <v>966.55683630999999</v>
+        <v>967.15628979999997</v>
       </c>
       <c r="K1272" s="1">
-        <v>203943.49246141</v>
+        <v>204069.9771478</v>
       </c>
       <c r="L1272" s="1"/>
       <c r="M1272" s="1">
-        <v>0.51827244479982004</v>
+        <v>0.51839672200850995</v>
       </c>
     </row>
     <row r="1273" spans="1:13" x14ac:dyDescent="0.35">
@@ -53538,14 +53490,14 @@
         <v>124</v>
       </c>
       <c r="J1273" s="1">
-        <v>922.92587647744006</v>
+        <v>923.61349705744999</v>
       </c>
       <c r="K1273" s="1">
-        <v>114442.8086832</v>
+        <v>114528.07363512</v>
       </c>
       <c r="L1273" s="1"/>
       <c r="M1273" s="1">
-        <v>0.2908283737331</v>
+        <v>0.29093440779579999</v>
       </c>
     </row>
     <row r="1274" spans="1:13" x14ac:dyDescent="0.35">
@@ -53575,14 +53527,14 @@
         <v>255</v>
       </c>
       <c r="J1274" s="1">
-        <v>1090.9310965945001</v>
+        <v>1091.6605820950001</v>
       </c>
       <c r="K1274" s="1">
-        <v>278187.42963159998</v>
+        <v>278373.44843421999</v>
       </c>
       <c r="L1274" s="1"/>
       <c r="M1274" s="1">
-        <v>0.70694523040506996</v>
+        <v>0.70714901417362996</v>
       </c>
     </row>
     <row r="1275" spans="1:13" x14ac:dyDescent="0.35">
@@ -53614,14 +53566,14 @@
         <v>227</v>
       </c>
       <c r="J1275" s="1">
-        <v>1000</v>
+        <v>1000.7070463</v>
       </c>
       <c r="K1275" s="1">
-        <v>227000</v>
+        <v>227160.49951009999</v>
       </c>
       <c r="L1275" s="1"/>
       <c r="M1275" s="1">
-        <v>0.57686491267585005</v>
+        <v>0.57705332240304996</v>
       </c>
     </row>
     <row r="1276" spans="1:13" x14ac:dyDescent="0.35">
@@ -53653,14 +53605,14 @@
         <v>59</v>
       </c>
       <c r="J1276" s="1">
-        <v>595.26025559000004</v>
+        <v>595.69020632000002</v>
       </c>
       <c r="K1276" s="1">
-        <v>35120.355079809997</v>
+        <v>35145.72217288</v>
       </c>
       <c r="L1276" s="1"/>
       <c r="M1276" s="1">
-        <v>8.9249782230219996E-2</v>
+        <v>8.9280292092389996E-2</v>
       </c>
     </row>
     <row r="1277" spans="1:13" x14ac:dyDescent="0.35">
@@ -53680,7 +53632,7 @@
         <v>498</v>
       </c>
       <c r="F1277" s="1" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="G1277" s="1" t="s">
         <v>298</v>
@@ -53692,14 +53644,14 @@
         <v>1081</v>
       </c>
       <c r="J1277" s="1">
-        <v>337.70408350000002</v>
+        <v>337.93639309999998</v>
       </c>
       <c r="K1277" s="1">
-        <v>365058.11426350003</v>
+        <v>365309.2409411</v>
       </c>
       <c r="L1277" s="1"/>
       <c r="M1277" s="1">
-        <v>0.17708533691885001</v>
+        <v>0.17715013286105999</v>
       </c>
     </row>
     <row r="1278" spans="1:13" x14ac:dyDescent="0.35">
@@ -53719,7 +53671,7 @@
         <v>498</v>
       </c>
       <c r="F1278" s="1" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="G1278" s="1" t="s">
         <v>298</v>
@@ -53731,14 +53683,14 @@
         <v>271</v>
       </c>
       <c r="J1278" s="1">
-        <v>337.70408350000002</v>
+        <v>337.93639309999998</v>
       </c>
       <c r="K1278" s="1">
-        <v>91517.806628499995</v>
+        <v>91580.762530099993</v>
       </c>
       <c r="L1278" s="1"/>
       <c r="M1278" s="1">
-        <v>0.23257009484155999</v>
+        <v>0.23264160538549</v>
       </c>
     </row>
     <row r="1279" spans="1:13" x14ac:dyDescent="0.35">
@@ -53770,14 +53722,14 @@
         <v>89</v>
       </c>
       <c r="J1279" s="1">
-        <v>1158.5450942739001</v>
+        <v>1159.4518710725999</v>
       </c>
       <c r="K1279" s="1">
-        <v>103110.51339038</v>
+        <v>103191.21652546</v>
       </c>
       <c r="L1279" s="1"/>
       <c r="M1279" s="1">
-        <v>0.26203012027709999</v>
+        <v>0.26213551417279002</v>
       </c>
     </row>
     <row r="1280" spans="1:13" x14ac:dyDescent="0.35">
@@ -53809,14 +53761,14 @@
         <v>542</v>
       </c>
       <c r="J1280" s="1">
-        <v>1089.3172780699999</v>
+        <v>1089.9822257799999</v>
       </c>
       <c r="K1280" s="1">
-        <v>590409.96471394005</v>
+        <v>590770.36637276004</v>
       </c>
       <c r="L1280" s="1"/>
       <c r="M1280" s="1">
-        <v>1.5003823468619</v>
+        <v>1.5007274743095</v>
       </c>
     </row>
     <row r="1281" spans="1:13" x14ac:dyDescent="0.35">
@@ -53848,14 +53800,14 @@
         <v>98</v>
       </c>
       <c r="J1281" s="1">
-        <v>1005.82434317</v>
+        <v>1006.47358282</v>
       </c>
       <c r="K1281" s="1">
-        <v>98570.785630660001</v>
+        <v>98634.411116360003</v>
       </c>
       <c r="L1281" s="1"/>
       <c r="M1281" s="1">
-        <v>0.25049351385559998</v>
+        <v>0.2505599114314</v>
       </c>
     </row>
     <row r="1282" spans="1:13" x14ac:dyDescent="0.35">
@@ -53885,14 +53837,14 @@
         <v>175</v>
       </c>
       <c r="J1282" s="1">
-        <v>911.66057562000003</v>
+        <v>912.21350946999996</v>
       </c>
       <c r="K1282" s="1">
-        <v>159540.6007335</v>
+        <v>159637.36415725001</v>
       </c>
       <c r="L1282" s="1"/>
       <c r="M1282" s="1">
-        <v>0.40543336876821001</v>
+        <v>0.40552504315351001</v>
       </c>
     </row>
     <row r="1283" spans="1:13" x14ac:dyDescent="0.35">
@@ -53922,14 +53874,14 @@
         <v>1799</v>
       </c>
       <c r="J1283" s="1">
-        <v>1269.7331279560999</v>
+        <v>1270.4407017972001</v>
       </c>
       <c r="K1283" s="1">
-        <v>2284249.8971930998</v>
+        <v>2285522.8225332</v>
       </c>
       <c r="L1283" s="1"/>
       <c r="M1283" s="1">
-        <v>1.1080623792388999</v>
+        <v>1.108323103532</v>
       </c>
     </row>
     <row r="1284" spans="1:13" x14ac:dyDescent="0.35">
@@ -53959,14 +53911,14 @@
         <v>62</v>
       </c>
       <c r="J1284" s="1">
-        <v>1269.7330357574999</v>
+        <v>1270.4406095472</v>
       </c>
       <c r="K1284" s="1">
-        <v>78723.448216966004</v>
+        <v>78767.317791929003</v>
       </c>
       <c r="L1284" s="1"/>
       <c r="M1284" s="1">
-        <v>0.20005636599657001</v>
+        <v>0.20009175242454</v>
       </c>
     </row>
     <row r="1285" spans="1:13" x14ac:dyDescent="0.35">
@@ -53998,14 +53950,14 @@
         <v>71</v>
       </c>
       <c r="J1285" s="1">
-        <v>1002.44394364</v>
+        <v>1003.05586227</v>
       </c>
       <c r="K1285" s="1">
-        <v>71173.519998439995</v>
+        <v>71216.966221170005</v>
       </c>
       <c r="L1285" s="1"/>
       <c r="M1285" s="1">
-        <v>0.18087007224111001</v>
+        <v>0.18091167724151</v>
       </c>
     </row>
     <row r="1286" spans="1:13" x14ac:dyDescent="0.35">
@@ -54035,14 +53987,14 @@
         <v>12</v>
       </c>
       <c r="J1286" s="1">
-        <v>42332.81085781</v>
+        <v>42362.742109573002</v>
       </c>
       <c r="K1286" s="1">
-        <v>507993.73029371997</v>
+        <v>508352.90531487</v>
       </c>
       <c r="L1286" s="1"/>
       <c r="M1286" s="1">
-        <v>0.24642169935934</v>
+        <v>0.24651657999354001</v>
       </c>
     </row>
     <row r="1287" spans="1:13" x14ac:dyDescent="0.35">
@@ -54062,26 +54014,26 @@
         <v>542</v>
       </c>
       <c r="F1287" s="1" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="G1287" s="1" t="s">
         <v>544</v>
       </c>
       <c r="H1287" s="1" t="s">
-        <v>1810</v>
+        <v>545</v>
       </c>
       <c r="I1287" s="1">
         <v>69</v>
       </c>
       <c r="J1287" s="1">
-        <v>1047.0413043478</v>
+        <v>1046.5204347826</v>
       </c>
       <c r="K1287" s="1">
-        <v>72245.850000000006</v>
+        <v>72209.91</v>
       </c>
       <c r="L1287" s="1"/>
       <c r="M1287" s="1">
-        <v>0.18359513634996999</v>
+        <v>0.18343404141913</v>
       </c>
     </row>
     <row r="1288" spans="1:13" x14ac:dyDescent="0.35">
@@ -54101,7 +54053,7 @@
         <v>549</v>
       </c>
       <c r="F1288" s="1" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="G1288" s="1" t="s">
         <v>551</v>
@@ -54113,14 +54065,14 @@
         <v>1886</v>
       </c>
       <c r="J1288" s="1">
-        <v>356.86195652174001</v>
+        <v>357.06325026511001</v>
       </c>
       <c r="K1288" s="1">
-        <v>673041.65</v>
+        <v>673421.29</v>
       </c>
       <c r="L1288" s="1"/>
       <c r="M1288" s="1">
-        <v>0.32648447656376001</v>
+        <v>0.32656351831571001</v>
       </c>
     </row>
     <row r="1289" spans="1:13" x14ac:dyDescent="0.35">
@@ -54140,7 +54092,7 @@
         <v>549</v>
       </c>
       <c r="F1289" s="1" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="G1289" s="1" t="s">
         <v>551</v>
@@ -54152,14 +54104,14 @@
         <v>676</v>
       </c>
       <c r="J1289" s="1">
-        <v>356.86196745562</v>
+        <v>357.06323964497</v>
       </c>
       <c r="K1289" s="1">
-        <v>241238.69</v>
+        <v>241374.75</v>
       </c>
       <c r="L1289" s="1"/>
       <c r="M1289" s="1">
-        <v>0.61304905656777997</v>
+        <v>0.61316162683254005</v>
       </c>
     </row>
     <row r="1290" spans="1:13" x14ac:dyDescent="0.35">
@@ -54185,20 +54137,20 @@
         <v>558</v>
       </c>
       <c r="H1290" s="1" t="s">
-        <v>1251</v>
+        <v>559</v>
       </c>
       <c r="I1290" s="1">
         <v>41</v>
       </c>
       <c r="J1290" s="1">
-        <v>1131.4465853659001</v>
+        <v>1132.2009756098</v>
       </c>
       <c r="K1290" s="1">
-        <v>46389.31</v>
+        <v>46420.24</v>
       </c>
       <c r="L1290" s="1"/>
       <c r="M1290" s="1">
-        <v>0.11788707163984</v>
+        <v>0.11792082592050999</v>
       </c>
     </row>
     <row r="1291" spans="1:13" x14ac:dyDescent="0.35">
@@ -54218,7 +54170,7 @@
         <v>565</v>
       </c>
       <c r="F1291" s="1" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="G1291" s="1" t="s">
         <v>567</v>
@@ -54230,14 +54182,14 @@
         <v>140</v>
       </c>
       <c r="J1291" s="1">
-        <v>1006.1880714286</v>
+        <v>1006.7890714286</v>
       </c>
       <c r="K1291" s="1">
-        <v>140866.32999999999</v>
+        <v>140950.47</v>
       </c>
       <c r="L1291" s="1"/>
       <c r="M1291" s="1">
-        <v>0.35797728261857997</v>
+        <v>0.35805493113099002</v>
       </c>
     </row>
     <row r="1292" spans="1:13" x14ac:dyDescent="0.35">
@@ -54257,7 +54209,7 @@
         <v>572</v>
       </c>
       <c r="F1292" s="1" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="G1292" s="1" t="s">
         <v>574</v>
@@ -54269,14 +54221,14 @@
         <v>1169</v>
       </c>
       <c r="J1292" s="1">
-        <v>728.38923866553</v>
+        <v>728.83097519246996</v>
       </c>
       <c r="K1292" s="1">
-        <v>851487.02</v>
+        <v>852003.41</v>
       </c>
       <c r="L1292" s="1"/>
       <c r="M1292" s="1">
-        <v>0.41304619710464002</v>
+        <v>0.41316369903687</v>
       </c>
     </row>
     <row r="1293" spans="1:13" x14ac:dyDescent="0.35">
@@ -54296,7 +54248,7 @@
         <v>572</v>
       </c>
       <c r="F1293" s="1" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="G1293" s="1" t="s">
         <v>574</v>
@@ -54308,14 +54260,14 @@
         <v>276</v>
       </c>
       <c r="J1293" s="1">
-        <v>728.38923913043004</v>
+        <v>728.83097826086998</v>
       </c>
       <c r="K1293" s="1">
-        <v>201035.43</v>
+        <v>201157.35</v>
       </c>
       <c r="L1293" s="1"/>
       <c r="M1293" s="1">
-        <v>0.51088231617489999</v>
+        <v>0.51099780724918997</v>
       </c>
     </row>
     <row r="1294" spans="1:13" x14ac:dyDescent="0.35">
@@ -54332,29 +54284,29 @@
         <v>1742</v>
       </c>
       <c r="E1294" s="1" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="F1294" s="1" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="G1294" s="1" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="H1294" s="1" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="I1294" s="1">
         <v>1340</v>
       </c>
       <c r="J1294" s="1">
-        <v>713.91929104478004</v>
+        <v>714.36166417909999</v>
       </c>
       <c r="K1294" s="1">
-        <v>956651.85</v>
+        <v>957244.63</v>
       </c>
       <c r="L1294" s="1"/>
       <c r="M1294" s="1">
-        <v>0.46406040176117003</v>
+        <v>0.46419853203872002</v>
       </c>
     </row>
     <row r="1295" spans="1:13" x14ac:dyDescent="0.35">
@@ -54374,7 +54326,7 @@
         <v>583</v>
       </c>
       <c r="F1295" s="1" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="G1295" s="1" t="s">
         <v>580</v>
@@ -54386,14 +54338,14 @@
         <v>84</v>
       </c>
       <c r="J1295" s="1">
-        <v>995.46428571428999</v>
+        <v>1001.1375</v>
       </c>
       <c r="K1295" s="1">
-        <v>83619</v>
+        <v>84095.55</v>
       </c>
       <c r="L1295" s="1"/>
       <c r="M1295" s="1">
-        <v>0.21249721203982999</v>
+        <v>0.21362700219214001</v>
       </c>
     </row>
     <row r="1296" spans="1:13" x14ac:dyDescent="0.35">
@@ -54425,14 +54377,14 @@
         <v>35</v>
       </c>
       <c r="J1296" s="1">
-        <v>1021.9011428571</v>
+        <v>1023.0957142857</v>
       </c>
       <c r="K1296" s="1">
-        <v>35766.54</v>
+        <v>35808.35</v>
       </c>
       <c r="L1296" s="1"/>
       <c r="M1296" s="1">
-        <v>9.089190296836E-2</v>
+        <v>9.0963558285150001E-2</v>
       </c>
     </row>
     <row r="1297" spans="1:13" x14ac:dyDescent="0.35">
@@ -54452,26 +54404,26 @@
         <v>595</v>
       </c>
       <c r="F1297" s="1" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="G1297" s="1" t="s">
         <v>597</v>
       </c>
       <c r="H1297" s="1" t="s">
-        <v>1822</v>
+        <v>598</v>
       </c>
       <c r="I1297" s="1">
         <v>277</v>
       </c>
       <c r="J1297" s="1">
-        <v>1056.4546931407999</v>
+        <v>1057.1392057762</v>
       </c>
       <c r="K1297" s="1">
-        <v>292637.95</v>
+        <v>292827.56</v>
       </c>
       <c r="L1297" s="1"/>
       <c r="M1297" s="1">
-        <v>0.74366768930567995</v>
+        <v>0.74386663506021999</v>
       </c>
     </row>
     <row r="1298" spans="1:13" x14ac:dyDescent="0.35">
@@ -54510,7 +54462,7 @@
       </c>
       <c r="L1298" s="1"/>
       <c r="M1298" s="1">
-        <v>4.4658391109340001E-2</v>
+        <v>4.4641413430830001E-2</v>
       </c>
     </row>
     <row r="1299" spans="1:13" x14ac:dyDescent="0.35">
@@ -54549,7 +54501,7 @@
       </c>
       <c r="L1299" s="1"/>
       <c r="M1299" s="1">
-        <v>7.0197852609299996E-3</v>
+        <v>7.0171165652099998E-3</v>
       </c>
     </row>
     <row r="1300" spans="1:13" x14ac:dyDescent="0.35">
@@ -54575,20 +54527,20 @@
         <v>631</v>
       </c>
       <c r="H1300" s="1" t="s">
-        <v>1823</v>
+        <v>632</v>
       </c>
       <c r="I1300" s="1">
         <v>147</v>
       </c>
       <c r="J1300" s="1">
-        <v>1062.1407482993</v>
+        <v>1063.2572789116</v>
       </c>
       <c r="K1300" s="1">
-        <v>156134.69</v>
+        <v>156298.82</v>
       </c>
       <c r="L1300" s="1"/>
       <c r="M1300" s="1">
-        <v>0.39677808067190001</v>
+        <v>0.39704417609218001</v>
       </c>
     </row>
     <row r="1301" spans="1:13" x14ac:dyDescent="0.35">
@@ -54608,26 +54560,26 @@
         <v>678</v>
       </c>
       <c r="F1301" s="1" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="G1301" s="1" t="s">
         <v>679</v>
       </c>
       <c r="H1301" s="1" t="s">
-        <v>1824</v>
+        <v>680</v>
       </c>
       <c r="I1301" s="1">
         <v>69</v>
       </c>
       <c r="J1301" s="1">
-        <v>1051.5298550724999</v>
+        <v>1052.4363768116</v>
       </c>
       <c r="K1301" s="1">
-        <v>72555.56</v>
+        <v>72618.11</v>
       </c>
       <c r="L1301" s="1"/>
       <c r="M1301" s="1">
-        <v>0.18438218847377999</v>
+        <v>0.18447098739659001</v>
       </c>
     </row>
     <row r="1302" spans="1:13" x14ac:dyDescent="0.35">
@@ -54647,7 +54599,7 @@
         <v>700</v>
       </c>
       <c r="F1302" s="1" t="s">
-        <v>1825</v>
+        <v>1816</v>
       </c>
       <c r="G1302" s="1" t="s">
         <v>702</v>
@@ -54659,14 +54611,14 @@
         <v>203</v>
       </c>
       <c r="J1302" s="1">
-        <v>921.65753694580997</v>
+        <v>925.22862068966003</v>
       </c>
       <c r="K1302" s="1">
-        <v>187096.48</v>
+        <v>187821.41</v>
       </c>
       <c r="L1302" s="1"/>
       <c r="M1302" s="1">
-        <v>9.0758270813879993E-2</v>
+        <v>9.1080607897939994E-2</v>
       </c>
     </row>
     <row r="1303" spans="1:13" x14ac:dyDescent="0.35">
@@ -54686,7 +54638,7 @@
         <v>696</v>
       </c>
       <c r="F1303" s="1" t="s">
-        <v>1826</v>
+        <v>1817</v>
       </c>
       <c r="G1303" s="1" t="s">
         <v>698</v>
@@ -54698,14 +54650,14 @@
         <v>187</v>
       </c>
       <c r="J1303" s="1">
-        <v>919.55042780749</v>
+        <v>923.05566844919997</v>
       </c>
       <c r="K1303" s="1">
-        <v>171955.93</v>
+        <v>172611.41</v>
       </c>
       <c r="L1303" s="1"/>
       <c r="M1303" s="1">
-        <v>0.43698388785702003</v>
+        <v>0.43848286933682001</v>
       </c>
     </row>
     <row r="1304" spans="1:13" x14ac:dyDescent="0.35">
@@ -54725,7 +54677,7 @@
         <v>700</v>
       </c>
       <c r="F1304" s="1" t="s">
-        <v>1827</v>
+        <v>1818</v>
       </c>
       <c r="G1304" s="1" t="s">
         <v>702</v>
@@ -54737,14 +54689,14 @@
         <v>83</v>
       </c>
       <c r="J1304" s="1">
-        <v>921.65746987952002</v>
+        <v>925.22867469879998</v>
       </c>
       <c r="K1304" s="1">
-        <v>76497.570000000007</v>
+        <v>76793.98</v>
       </c>
       <c r="L1304" s="1"/>
       <c r="M1304" s="1">
-        <v>0.19439984157694001</v>
+        <v>0.19507890410138001</v>
       </c>
     </row>
     <row r="1305" spans="1:13" x14ac:dyDescent="0.35">
@@ -54764,26 +54716,26 @@
         <v>713</v>
       </c>
       <c r="F1305" s="1" t="s">
-        <v>1828</v>
+        <v>1819</v>
       </c>
       <c r="G1305" s="1" t="s">
         <v>714</v>
       </c>
       <c r="H1305" s="1" t="s">
-        <v>1829</v>
+        <v>715</v>
       </c>
       <c r="I1305" s="1">
         <v>184</v>
       </c>
       <c r="J1305" s="1">
-        <v>1043.1451630434999</v>
+        <v>1043.7253804347999</v>
       </c>
       <c r="K1305" s="1">
-        <v>191938.71</v>
+        <v>192045.47</v>
       </c>
       <c r="L1305" s="1"/>
       <c r="M1305" s="1">
-        <v>0.48776522988221999</v>
+        <v>0.48785099854487002</v>
       </c>
     </row>
     <row r="1306" spans="1:13" x14ac:dyDescent="0.35">
@@ -54803,7 +54755,7 @@
         <v>710</v>
       </c>
       <c r="F1306" s="1" t="s">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="G1306" s="1" t="s">
         <v>711</v>
@@ -54815,14 +54767,14 @@
         <v>185</v>
       </c>
       <c r="J1306" s="1">
-        <v>1019.7405405405</v>
+        <v>1020.3551891892</v>
       </c>
       <c r="K1306" s="1">
-        <v>188652</v>
+        <v>188765.71</v>
       </c>
       <c r="L1306" s="1"/>
       <c r="M1306" s="1">
-        <v>0.47941286126046001</v>
+        <v>0.47951946023267999</v>
       </c>
     </row>
     <row r="1307" spans="1:13" x14ac:dyDescent="0.35">
@@ -54842,7 +54794,7 @@
         <v>723</v>
       </c>
       <c r="F1307" s="1" t="s">
-        <v>1831</v>
+        <v>1821</v>
       </c>
       <c r="G1307" s="1" t="s">
         <v>725</v>
@@ -54854,14 +54806,14 @@
         <v>95</v>
       </c>
       <c r="J1307" s="1">
-        <v>702.13189473683997</v>
+        <v>702.60705263158002</v>
       </c>
       <c r="K1307" s="1">
-        <v>66702.53</v>
+        <v>66747.67</v>
       </c>
       <c r="L1307" s="1"/>
       <c r="M1307" s="1">
-        <v>3.2356601694010001E-2</v>
+        <v>3.2368079652750001E-2</v>
       </c>
     </row>
     <row r="1308" spans="1:13" x14ac:dyDescent="0.35">
@@ -54881,7 +54833,7 @@
         <v>723</v>
       </c>
       <c r="F1308" s="1" t="s">
-        <v>1832</v>
+        <v>1822</v>
       </c>
       <c r="G1308" s="1" t="s">
         <v>725</v>
@@ -54893,14 +54845,14 @@
         <v>152</v>
       </c>
       <c r="J1308" s="1">
-        <v>702.13197368421004</v>
+        <v>702.60703947367995</v>
       </c>
       <c r="K1308" s="1">
-        <v>106724.06</v>
+        <v>106796.27</v>
       </c>
       <c r="L1308" s="1"/>
       <c r="M1308" s="1">
-        <v>0.2712130641071</v>
+        <v>0.27129339192622998</v>
       </c>
     </row>
     <row r="1309" spans="1:13" x14ac:dyDescent="0.35">
@@ -54920,26 +54872,26 @@
         <v>741</v>
       </c>
       <c r="F1309" s="1" t="s">
-        <v>1833</v>
+        <v>1823</v>
       </c>
       <c r="G1309" s="1" t="s">
         <v>743</v>
       </c>
       <c r="H1309" s="1" t="s">
-        <v>1324</v>
+        <v>744</v>
       </c>
       <c r="I1309" s="1">
         <v>152</v>
       </c>
       <c r="J1309" s="1">
-        <v>684.78460526315996</v>
+        <v>685.17868421053004</v>
       </c>
       <c r="K1309" s="1">
-        <v>104087.26</v>
+        <v>104147.16</v>
       </c>
       <c r="L1309" s="1"/>
       <c r="M1309" s="1">
-        <v>0.26451228260162002</v>
+        <v>0.26456388688373</v>
       </c>
     </row>
     <row r="1310" spans="1:13" x14ac:dyDescent="0.35">
@@ -54959,26 +54911,26 @@
         <v>763</v>
       </c>
       <c r="F1310" s="1" t="s">
-        <v>1834</v>
+        <v>1824</v>
       </c>
       <c r="G1310" s="1" t="s">
         <v>765</v>
       </c>
       <c r="H1310" s="1" t="s">
-        <v>1835</v>
+        <v>766</v>
       </c>
       <c r="I1310" s="1">
         <v>130</v>
       </c>
       <c r="J1310" s="1">
-        <v>1100.3603076923</v>
+        <v>1100.9749230769</v>
       </c>
       <c r="K1310" s="1">
-        <v>143046.84</v>
+        <v>143126.74</v>
       </c>
       <c r="L1310" s="1"/>
       <c r="M1310" s="1">
-        <v>6.9390315861579996E-2</v>
+        <v>6.940673316024E-2</v>
       </c>
     </row>
     <row r="1311" spans="1:13" x14ac:dyDescent="0.35">
@@ -54998,26 +54950,26 @@
         <v>763</v>
       </c>
       <c r="F1311" s="1" t="s">
-        <v>1836</v>
+        <v>1825</v>
       </c>
       <c r="G1311" s="1" t="s">
         <v>765</v>
       </c>
       <c r="H1311" s="1" t="s">
-        <v>1835</v>
+        <v>766</v>
       </c>
       <c r="I1311" s="1">
         <v>225</v>
       </c>
       <c r="J1311" s="1">
-        <v>1100.3603555556001</v>
+        <v>1100.9748888889001</v>
       </c>
       <c r="K1311" s="1">
-        <v>247581.08</v>
+        <v>247719.35</v>
       </c>
       <c r="L1311" s="1"/>
       <c r="M1311" s="1">
-        <v>0.62916668764049</v>
+        <v>0.62927874454099997</v>
       </c>
     </row>
     <row r="1312" spans="1:13" x14ac:dyDescent="0.35">
@@ -55037,7 +54989,7 @@
         <v>780</v>
       </c>
       <c r="F1312" s="1" t="s">
-        <v>1837</v>
+        <v>1826</v>
       </c>
       <c r="G1312" s="1" t="s">
         <v>782</v>
@@ -55049,14 +55001,14 @@
         <v>305</v>
       </c>
       <c r="J1312" s="1">
-        <v>508.57763934425998</v>
+        <v>508.91272131148003</v>
       </c>
       <c r="K1312" s="1">
-        <v>155116.18</v>
+        <v>155218.38</v>
       </c>
       <c r="L1312" s="1"/>
       <c r="M1312" s="1">
-        <v>0.39418978691766998</v>
+        <v>0.39429954622474001</v>
       </c>
     </row>
     <row r="1313" spans="1:13" x14ac:dyDescent="0.35">
@@ -55088,14 +55040,14 @@
         <v>112</v>
       </c>
       <c r="J1313" s="1">
-        <v>1085.6857142857</v>
+        <v>1086.5220535714</v>
       </c>
       <c r="K1313" s="1">
-        <v>121596.8</v>
+        <v>121690.47</v>
       </c>
       <c r="L1313" s="1"/>
       <c r="M1313" s="1">
-        <v>0.30900849080908999</v>
+        <v>0.30912896462954997</v>
       </c>
     </row>
     <row r="1314" spans="1:13" x14ac:dyDescent="0.35">
@@ -55115,7 +55067,7 @@
         <v>814</v>
       </c>
       <c r="F1314" s="1" t="s">
-        <v>1838</v>
+        <v>1827</v>
       </c>
       <c r="G1314" s="1" t="s">
         <v>815</v>
@@ -55127,14 +55079,14 @@
         <v>199</v>
       </c>
       <c r="J1314" s="1">
-        <v>700.31130653265996</v>
+        <v>699.16447236181</v>
       </c>
       <c r="K1314" s="1">
-        <v>139361.95000000001</v>
+        <v>139133.73000000001</v>
       </c>
       <c r="L1314" s="1"/>
       <c r="M1314" s="1">
-        <v>0.35415426923825999</v>
+        <v>0.35343988645904001</v>
       </c>
     </row>
     <row r="1315" spans="1:13" x14ac:dyDescent="0.35">
@@ -55154,7 +55106,7 @@
         <v>822</v>
       </c>
       <c r="F1315" s="1" t="s">
-        <v>1839</v>
+        <v>1828</v>
       </c>
       <c r="G1315" s="1" t="s">
         <v>824</v>
@@ -55166,14 +55118,14 @@
         <v>526</v>
       </c>
       <c r="J1315" s="1">
-        <v>829.16863117871003</v>
+        <v>829.66180608365005</v>
       </c>
       <c r="K1315" s="1">
-        <v>436142.7</v>
+        <v>436402.11</v>
       </c>
       <c r="L1315" s="1"/>
       <c r="M1315" s="1">
-        <v>0.21156762158271</v>
+        <v>0.21162533848907</v>
       </c>
     </row>
     <row r="1316" spans="1:13" x14ac:dyDescent="0.35">
@@ -55193,26 +55145,26 @@
         <v>828</v>
       </c>
       <c r="F1316" s="1" t="s">
-        <v>1840</v>
+        <v>1829</v>
       </c>
       <c r="G1316" s="1" t="s">
         <v>830</v>
       </c>
       <c r="H1316" s="1" t="s">
-        <v>1841</v>
+        <v>831</v>
       </c>
       <c r="I1316" s="1">
         <v>159</v>
       </c>
       <c r="J1316" s="1">
-        <v>1019.5777987421</v>
+        <v>1020.1647798742</v>
       </c>
       <c r="K1316" s="1">
-        <v>162112.87</v>
+        <v>162206.20000000001</v>
       </c>
       <c r="L1316" s="1"/>
       <c r="M1316" s="1">
-        <v>0.41197016121666002</v>
+        <v>0.41205062863586001</v>
       </c>
     </row>
     <row r="1317" spans="1:13" x14ac:dyDescent="0.35">
@@ -55244,14 +55196,14 @@
         <v>140</v>
       </c>
       <c r="J1317" s="1">
-        <v>1017.5469285714</v>
+        <v>1018.3420714286</v>
       </c>
       <c r="K1317" s="1">
-        <v>142456.57</v>
+        <v>142567.89000000001</v>
       </c>
       <c r="L1317" s="1"/>
       <c r="M1317" s="1">
-        <v>0.36201848816366</v>
+        <v>0.36216364539572998</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.35">
@@ -55271,7 +55223,7 @@
         <v>879</v>
       </c>
       <c r="F1318" s="1" t="s">
-        <v>1842</v>
+        <v>1830</v>
       </c>
       <c r="G1318" s="1" t="s">
         <v>881</v>
@@ -55283,14 +55235,14 @@
         <v>902</v>
       </c>
       <c r="J1318" s="1">
-        <v>1054.6717516629999</v>
+        <v>1054.9017073171001</v>
       </c>
       <c r="K1318" s="1">
-        <v>951313.92000000004</v>
+        <v>951521.34</v>
       </c>
       <c r="L1318" s="1"/>
       <c r="M1318" s="1">
-        <v>0.46147103558748997</v>
+        <v>0.46142312569725003</v>
       </c>
     </row>
     <row r="1319" spans="1:13" x14ac:dyDescent="0.35">
@@ -55310,7 +55262,7 @@
         <v>879</v>
       </c>
       <c r="F1319" s="1" t="s">
-        <v>1843</v>
+        <v>1831</v>
       </c>
       <c r="G1319" s="1" t="s">
         <v>881</v>
@@ -55322,14 +55274,14 @@
         <v>172</v>
       </c>
       <c r="J1319" s="1">
-        <v>1054.6717441860001</v>
+        <v>1054.9016860464999</v>
       </c>
       <c r="K1319" s="1">
-        <v>181403.54</v>
+        <v>181443.09</v>
       </c>
       <c r="L1319" s="1"/>
       <c r="M1319" s="1">
-        <v>0.46099267515942</v>
+        <v>0.46091788905808001</v>
       </c>
     </row>
     <row r="1320" spans="1:13" x14ac:dyDescent="0.35">
@@ -55349,7 +55301,7 @@
         <v>886</v>
       </c>
       <c r="F1320" s="1" t="s">
-        <v>1840</v>
+        <v>1829</v>
       </c>
       <c r="G1320" s="1" t="s">
         <v>881</v>
@@ -55361,14 +55313,14 @@
         <v>159</v>
       </c>
       <c r="J1320" s="1">
-        <v>1045.6120754717001</v>
+        <v>1046.2552830188999</v>
       </c>
       <c r="K1320" s="1">
-        <v>166252.32</v>
+        <v>166354.59</v>
       </c>
       <c r="L1320" s="1"/>
       <c r="M1320" s="1">
-        <v>0.42248955973108998</v>
+        <v>0.42258873819842002</v>
       </c>
     </row>
     <row r="1321" spans="1:13" x14ac:dyDescent="0.35">
@@ -55400,14 +55352,14 @@
         <v>4887</v>
       </c>
       <c r="J1321" s="1">
-        <v>70.040556578677993</v>
+        <v>70.068418252507001</v>
       </c>
       <c r="K1321" s="1">
-        <v>342288.2</v>
+        <v>342424.36</v>
       </c>
       <c r="L1321" s="1"/>
       <c r="M1321" s="1">
-        <v>0.16603992310275001</v>
+        <v>0.16605252227562001</v>
       </c>
     </row>
     <row r="1322" spans="1:13" x14ac:dyDescent="0.35">
@@ -55439,14 +55391,14 @@
         <v>4412</v>
       </c>
       <c r="J1322" s="1">
-        <v>70.040555303716999</v>
+        <v>70.068417951043003</v>
       </c>
       <c r="K1322" s="1">
-        <v>309018.93</v>
+        <v>309141.86</v>
       </c>
       <c r="L1322" s="1"/>
       <c r="M1322" s="1">
-        <v>0.14990139705224001</v>
+        <v>0.14991277371148001</v>
       </c>
     </row>
     <row r="1323" spans="1:13" x14ac:dyDescent="0.35">
@@ -55485,7 +55437,7 @@
       </c>
       <c r="L1323" s="1"/>
       <c r="M1323" s="1">
-        <v>7.9121381477659999E-2</v>
+        <v>7.9095921399810004E-2</v>
       </c>
     </row>
     <row r="1324" spans="1:13" x14ac:dyDescent="0.35">
@@ -55517,14 +55469,14 @@
         <v>2067</v>
       </c>
       <c r="J1324" s="1">
-        <v>38.426381228834003</v>
+        <v>38.438732462506003</v>
       </c>
       <c r="K1324" s="1">
-        <v>79427.33</v>
+        <v>79452.86</v>
       </c>
       <c r="L1324" s="1"/>
       <c r="M1324" s="1">
-        <v>3.852925039618E-2</v>
+        <v>3.8529232572739998E-2</v>
       </c>
     </row>
     <row r="1325" spans="1:13" x14ac:dyDescent="0.35">
@@ -55556,14 +55508,14 @@
         <v>1859</v>
       </c>
       <c r="J1325" s="1">
-        <v>38.426379774071997</v>
+        <v>38.438730500269003</v>
       </c>
       <c r="K1325" s="1">
-        <v>71434.64</v>
+        <v>71457.600000000006</v>
       </c>
       <c r="L1325" s="1"/>
       <c r="M1325" s="1">
-        <v>3.4652091811729999E-2</v>
+        <v>3.4652075324789998E-2</v>
       </c>
     </row>
     <row r="1326" spans="1:13" x14ac:dyDescent="0.35">
@@ -55595,14 +55547,14 @@
         <v>627</v>
       </c>
       <c r="J1326" s="1">
-        <v>70.040558213715997</v>
+        <v>70.068421052632004</v>
       </c>
       <c r="K1326" s="1">
-        <v>43915.43</v>
+        <v>43932.9</v>
       </c>
       <c r="L1326" s="1"/>
       <c r="M1326" s="1">
-        <v>0.11160031141882</v>
+        <v>0.11160226343257</v>
       </c>
     </row>
     <row r="1327" spans="1:13" x14ac:dyDescent="0.35">
@@ -55634,14 +55586,14 @@
         <v>441</v>
       </c>
       <c r="J1327" s="1">
-        <v>70.040566893424</v>
+        <v>70.068412698412999</v>
       </c>
       <c r="K1327" s="1">
-        <v>30887.89</v>
+        <v>30900.17</v>
       </c>
       <c r="L1327" s="1"/>
       <c r="M1327" s="1">
-        <v>7.84940086678E-2</v>
+        <v>7.8495362529019994E-2</v>
       </c>
     </row>
     <row r="1328" spans="1:13" x14ac:dyDescent="0.35">
@@ -55680,7 +55632,7 @@
       </c>
       <c r="L1328" s="1"/>
       <c r="M1328" s="1">
-        <v>4.6380599705470003E-2</v>
+        <v>4.6362967298849998E-2</v>
       </c>
     </row>
     <row r="1329" spans="1:13" x14ac:dyDescent="0.35">
@@ -55712,14 +55664,14 @@
         <v>265</v>
       </c>
       <c r="J1329" s="1">
-        <v>38.426377358491003</v>
+        <v>38.438716981132004</v>
       </c>
       <c r="K1329" s="1">
-        <v>10182.99</v>
+        <v>10186.26</v>
       </c>
       <c r="L1329" s="1"/>
       <c r="M1329" s="1">
-        <v>2.5877575493960001E-2</v>
+        <v>2.58760444203E-2</v>
       </c>
     </row>
     <row r="1330" spans="1:13" x14ac:dyDescent="0.35">
@@ -55751,14 +55703,14 @@
         <v>198</v>
       </c>
       <c r="J1330" s="1">
-        <v>38.426363636364002</v>
+        <v>38.438737373736998</v>
       </c>
       <c r="K1330" s="1">
-        <v>7608.42</v>
+        <v>7610.87</v>
       </c>
       <c r="L1330" s="1"/>
       <c r="M1330" s="1">
-        <v>1.9334936294719999E-2</v>
+        <v>1.9333809484260001E-2</v>
       </c>
     </row>
     <row r="1331" spans="1:13" x14ac:dyDescent="0.35">
@@ -55778,7 +55730,7 @@
         <v>925</v>
       </c>
       <c r="F1331" s="1" t="s">
-        <v>1844</v>
+        <v>1832</v>
       </c>
       <c r="G1331" s="1" t="s">
         <v>927</v>
@@ -55790,14 +55742,14 @@
         <v>28</v>
       </c>
       <c r="J1331" s="1">
-        <v>10879.451428570999</v>
+        <v>10886.077499999999</v>
       </c>
       <c r="K1331" s="1">
-        <v>304624.64000000001</v>
+        <v>304810.17</v>
       </c>
       <c r="L1331" s="1"/>
       <c r="M1331" s="1">
-        <v>0.77412892666304001</v>
+        <v>0.77430592765938</v>
       </c>
     </row>
     <row r="1332" spans="1:13" x14ac:dyDescent="0.35">
@@ -55817,7 +55769,7 @@
         <v>965</v>
       </c>
       <c r="F1332" s="1" t="s">
-        <v>1845</v>
+        <v>1833</v>
       </c>
       <c r="G1332" s="1" t="s">
         <v>967</v>
@@ -55829,14 +55781,14 @@
         <v>109</v>
       </c>
       <c r="J1332" s="1">
-        <v>1013.5558715596</v>
+        <v>1014.2557798165</v>
       </c>
       <c r="K1332" s="1">
-        <v>110477.59</v>
+        <v>110553.88</v>
       </c>
       <c r="L1332" s="1"/>
       <c r="M1332" s="1">
-        <v>0.28075174144488002</v>
+        <v>0.28083880734604</v>
       </c>
     </row>
     <row r="1333" spans="1:13" x14ac:dyDescent="0.35">
@@ -55853,29 +55805,29 @@
         <v>1742</v>
       </c>
       <c r="E1333" s="1" t="s">
-        <v>1846</v>
+        <v>1834</v>
       </c>
       <c r="F1333" s="1" t="s">
-        <v>1847</v>
+        <v>1835</v>
       </c>
       <c r="G1333" s="1" t="s">
         <v>1695</v>
       </c>
       <c r="H1333" s="1" t="s">
-        <v>1848</v>
+        <v>1836</v>
       </c>
       <c r="I1333" s="1">
         <v>1377</v>
       </c>
       <c r="J1333" s="1">
-        <v>504.85742919389997</v>
+        <v>505.14901234567998</v>
       </c>
       <c r="K1333" s="1">
-        <v>695188.68</v>
+        <v>695590.19</v>
       </c>
       <c r="L1333" s="1"/>
       <c r="M1333" s="1">
-        <v>0.33722773665321998</v>
+        <v>0.33731392684702999</v>
       </c>
     </row>
     <row r="1334" spans="1:13" x14ac:dyDescent="0.35">
@@ -55895,7 +55847,7 @@
         <v>984</v>
       </c>
       <c r="F1334" s="1" t="s">
-        <v>1849</v>
+        <v>1837</v>
       </c>
       <c r="G1334" s="1" t="s">
         <v>986</v>
@@ -55907,14 +55859,14 @@
         <v>376</v>
       </c>
       <c r="J1334" s="1">
-        <v>1051.7226861701999</v>
+        <v>1052.3933510638001</v>
       </c>
       <c r="K1334" s="1">
-        <v>395447.73</v>
+        <v>395699.9</v>
       </c>
       <c r="L1334" s="1"/>
       <c r="M1334" s="1">
-        <v>1.0049335693140999</v>
+        <v>1.0051921106971</v>
       </c>
     </row>
     <row r="1335" spans="1:13" x14ac:dyDescent="0.35">
@@ -55934,7 +55886,7 @@
         <v>1009</v>
       </c>
       <c r="F1335" s="1" t="s">
-        <v>1850</v>
+        <v>1838</v>
       </c>
       <c r="G1335" s="1" t="s">
         <v>1011</v>
@@ -55946,14 +55898,14 @@
         <v>700</v>
       </c>
       <c r="J1335" s="1">
-        <v>1049.0752571429</v>
+        <v>1049.6952000000001</v>
       </c>
       <c r="K1335" s="1">
-        <v>734352.68</v>
+        <v>734786.64</v>
       </c>
       <c r="L1335" s="1"/>
       <c r="M1335" s="1">
-        <v>0.35622572591606</v>
+        <v>0.35632153888360002</v>
       </c>
     </row>
     <row r="1336" spans="1:13" x14ac:dyDescent="0.35">
@@ -55973,7 +55925,7 @@
         <v>1009</v>
       </c>
       <c r="F1336" s="1" t="s">
-        <v>1851</v>
+        <v>1839</v>
       </c>
       <c r="G1336" s="1" t="s">
         <v>1011</v>
@@ -55985,14 +55937,14 @@
         <v>133</v>
       </c>
       <c r="J1336" s="1">
-        <v>1049.0752631579001</v>
+        <v>1049.6951879699</v>
       </c>
       <c r="K1336" s="1">
-        <v>139527.01</v>
+        <v>139609.46</v>
       </c>
       <c r="L1336" s="1"/>
       <c r="M1336" s="1">
-        <v>0.35457372880868998</v>
+        <v>0.35464837815394001</v>
       </c>
     </row>
     <row r="1337" spans="1:13" x14ac:dyDescent="0.35">
@@ -56012,7 +55964,7 @@
         <v>1015</v>
       </c>
       <c r="F1337" s="1" t="s">
-        <v>1852</v>
+        <v>1840</v>
       </c>
       <c r="G1337" s="1" t="s">
         <v>1017</v>
@@ -56024,14 +55976,14 @@
         <v>145</v>
       </c>
       <c r="J1337" s="1">
-        <v>1024.2049655172</v>
+        <v>1025.4502758620999</v>
       </c>
       <c r="K1337" s="1">
-        <v>148509.72</v>
+        <v>148690.29</v>
       </c>
       <c r="L1337" s="1"/>
       <c r="M1337" s="1">
-        <v>0.37740108660491001</v>
+        <v>0.37771631088421997</v>
       </c>
     </row>
     <row r="1338" spans="1:13" x14ac:dyDescent="0.35">
@@ -56051,7 +56003,7 @@
         <v>1026</v>
       </c>
       <c r="F1338" s="1" t="s">
-        <v>1853</v>
+        <v>1841</v>
       </c>
       <c r="G1338" s="1" t="s">
         <v>1028</v>
@@ -56063,14 +56015,14 @@
         <v>93000</v>
       </c>
       <c r="J1338" s="1">
-        <v>1.0681090322580999</v>
+        <v>1.0688720430108001</v>
       </c>
       <c r="K1338" s="1">
-        <v>99334.14</v>
+        <v>99405.1</v>
       </c>
       <c r="L1338" s="1"/>
       <c r="M1338" s="1">
-        <v>0.25243339205651999</v>
+        <v>0.2525176839394</v>
       </c>
     </row>
     <row r="1339" spans="1:13" x14ac:dyDescent="0.35">
@@ -56090,7 +56042,7 @@
         <v>1030</v>
       </c>
       <c r="F1339" s="1" t="s">
-        <v>1854</v>
+        <v>1842</v>
       </c>
       <c r="G1339" s="1" t="s">
         <v>1032</v>
@@ -56102,14 +56054,14 @@
         <v>31</v>
       </c>
       <c r="J1339" s="1">
-        <v>1062.3106451613</v>
+        <v>1063.0474193548</v>
       </c>
       <c r="K1339" s="1">
-        <v>32931.629999999997</v>
+        <v>32954.47</v>
       </c>
       <c r="L1339" s="1"/>
       <c r="M1339" s="1">
-        <v>8.3687673410679994E-2</v>
+        <v>8.3713878260270005E-2</v>
       </c>
     </row>
     <row r="1340" spans="1:13" x14ac:dyDescent="0.35">
@@ -56141,14 +56093,14 @@
         <v>1048</v>
       </c>
       <c r="J1340" s="1">
-        <v>1072.1873664121999</v>
+        <v>1072.7365744275</v>
       </c>
       <c r="K1340" s="1">
-        <v>1123652.3600000001</v>
+        <v>1124227.93</v>
       </c>
       <c r="L1340" s="1"/>
       <c r="M1340" s="1">
-        <v>0.54507035722712005</v>
+        <v>0.54517407403258999</v>
       </c>
     </row>
     <row r="1341" spans="1:13" x14ac:dyDescent="0.35">
@@ -56180,14 +56132,14 @@
         <v>185</v>
       </c>
       <c r="J1341" s="1">
-        <v>1072.1873513513999</v>
+        <v>1072.7365945946001</v>
       </c>
       <c r="K1341" s="1">
-        <v>198354.66</v>
+        <v>198456.27</v>
       </c>
       <c r="L1341" s="1"/>
       <c r="M1341" s="1">
-        <v>0.50406979568170995</v>
+        <v>0.50413628338637995</v>
       </c>
     </row>
     <row r="1342" spans="1:13" x14ac:dyDescent="0.35">
@@ -56207,26 +56159,26 @@
         <v>1095</v>
       </c>
       <c r="F1342" s="1" t="s">
-        <v>1855</v>
+        <v>1843</v>
       </c>
       <c r="G1342" s="1" t="s">
         <v>963</v>
       </c>
       <c r="H1342" s="1" t="s">
-        <v>1856</v>
+        <v>1097</v>
       </c>
       <c r="I1342" s="1">
         <v>116</v>
       </c>
       <c r="J1342" s="1">
-        <v>1079.1681034482999</v>
+        <v>1080.1204310344999</v>
       </c>
       <c r="K1342" s="1">
-        <v>125183.5</v>
+        <v>125293.97</v>
       </c>
       <c r="L1342" s="1"/>
       <c r="M1342" s="1">
-        <v>0.31812321055488002</v>
+        <v>0.31828289610867</v>
       </c>
     </row>
     <row r="1343" spans="1:13" x14ac:dyDescent="0.35">
@@ -56252,20 +56204,20 @@
         <v>1127</v>
       </c>
       <c r="H1343" s="1" t="s">
-        <v>1857</v>
+        <v>1156</v>
       </c>
       <c r="I1343" s="1">
         <v>52</v>
       </c>
       <c r="J1343" s="1">
-        <v>1083.7726923077</v>
+        <v>1083.2296153846</v>
       </c>
       <c r="K1343" s="1">
-        <v>56356.18</v>
+        <v>56327.94</v>
       </c>
       <c r="L1343" s="1"/>
       <c r="M1343" s="1">
-        <v>0.14321543107685</v>
+        <v>0.14308924743174001</v>
       </c>
     </row>
     <row r="1344" spans="1:13" x14ac:dyDescent="0.35">
@@ -56285,7 +56237,7 @@
         <v>1178</v>
       </c>
       <c r="F1344" s="1" t="s">
-        <v>1858</v>
+        <v>1844</v>
       </c>
       <c r="G1344" s="1" t="s">
         <v>1179</v>
@@ -56297,14 +56249,14 @@
         <v>868</v>
       </c>
       <c r="J1344" s="1">
-        <v>521.58466589861996</v>
+        <v>521.99005760369005</v>
       </c>
       <c r="K1344" s="1">
-        <v>452735.49</v>
+        <v>453087.37</v>
       </c>
       <c r="L1344" s="1"/>
       <c r="M1344" s="1">
-        <v>0.21961658609758999</v>
+        <v>0.21971655462751</v>
       </c>
     </row>
     <row r="1345" spans="1:13" x14ac:dyDescent="0.35">
@@ -56336,14 +56288,14 @@
         <v>44</v>
       </c>
       <c r="J1345" s="1">
-        <v>521.58477272726998</v>
+        <v>521.99</v>
       </c>
       <c r="K1345" s="1">
-        <v>22949.73</v>
+        <v>22967.56</v>
       </c>
       <c r="L1345" s="1"/>
       <c r="M1345" s="1">
-        <v>5.832111890918E-2</v>
+        <v>5.8344240455860001E-2</v>
       </c>
     </row>
     <row r="1346" spans="1:13" x14ac:dyDescent="0.35">
@@ -56363,7 +56315,7 @@
         <v>1196</v>
       </c>
       <c r="F1346" s="1" t="s">
-        <v>1859</v>
+        <v>1845</v>
       </c>
       <c r="G1346" s="1" t="s">
         <v>1197</v>
@@ -56375,14 +56327,14 @@
         <v>232</v>
       </c>
       <c r="J1346" s="1">
-        <v>1006.4717672414</v>
+        <v>1006.1767241379</v>
       </c>
       <c r="K1346" s="1">
-        <v>233501.45</v>
+        <v>233433</v>
       </c>
       <c r="L1346" s="1"/>
       <c r="M1346" s="1">
-        <v>0.59338675578824995</v>
+        <v>0.59298728651775001</v>
       </c>
     </row>
     <row r="1347" spans="1:13" x14ac:dyDescent="0.35">
@@ -56402,7 +56354,7 @@
         <v>1199</v>
       </c>
       <c r="F1347" s="1" t="s">
-        <v>1860</v>
+        <v>1846</v>
       </c>
       <c r="G1347" s="1" t="s">
         <v>1200</v>
@@ -56414,14 +56366,14 @@
         <v>63</v>
       </c>
       <c r="J1347" s="1">
-        <v>1005.7722222222</v>
+        <v>1006.3844444443999</v>
       </c>
       <c r="K1347" s="1">
-        <v>63363.65</v>
+        <v>63402.22</v>
       </c>
       <c r="L1347" s="1"/>
       <c r="M1347" s="1">
-        <v>0.16102320010605001</v>
+        <v>0.16105996323141999</v>
       </c>
     </row>
     <row r="1348" spans="1:13" x14ac:dyDescent="0.35">
@@ -56441,7 +56393,7 @@
         <v>1256</v>
       </c>
       <c r="F1348" s="1" t="s">
-        <v>1861</v>
+        <v>1847</v>
       </c>
       <c r="G1348" s="1" t="s">
         <v>1257</v>
@@ -56453,14 +56405,14 @@
         <v>1388</v>
       </c>
       <c r="J1348" s="1">
-        <v>1046.1870389049</v>
+        <v>1046.8579106627999</v>
       </c>
       <c r="K1348" s="1">
-        <v>1452107.61</v>
+        <v>1453038.78</v>
       </c>
       <c r="L1348" s="1"/>
       <c r="M1348" s="1">
-        <v>0.70440008128040998</v>
+        <v>0.70462496997378998</v>
       </c>
     </row>
     <row r="1349" spans="1:13" x14ac:dyDescent="0.35">
@@ -56492,14 +56444,14 @@
         <v>264</v>
       </c>
       <c r="J1349" s="1">
-        <v>1046.1870454545001</v>
+        <v>1046.8579166667</v>
       </c>
       <c r="K1349" s="1">
-        <v>276193.38</v>
+        <v>276370.49</v>
       </c>
       <c r="L1349" s="1"/>
       <c r="M1349" s="1">
-        <v>0.70187784156540001</v>
+        <v>0.70206092085814997</v>
       </c>
     </row>
     <row r="1350" spans="1:13" x14ac:dyDescent="0.35">
@@ -56519,7 +56471,7 @@
         <v>1267</v>
       </c>
       <c r="F1350" s="1" t="s">
-        <v>1862</v>
+        <v>1848</v>
       </c>
       <c r="G1350" s="1" t="s">
         <v>1269</v>
@@ -56531,14 +56483,14 @@
         <v>158</v>
       </c>
       <c r="J1350" s="1">
-        <v>1052.2673417722001</v>
+        <v>1050.3048734177</v>
       </c>
       <c r="K1350" s="1">
-        <v>166258.23999999999</v>
+        <v>165948.17000000001</v>
       </c>
       <c r="L1350" s="1"/>
       <c r="M1350" s="1">
-        <v>0.42250460396140999</v>
+        <v>0.42155631393540999</v>
       </c>
     </row>
     <row r="1351" spans="1:13" x14ac:dyDescent="0.35">
@@ -56558,7 +56510,7 @@
         <v>1278</v>
       </c>
       <c r="F1351" s="1" t="s">
-        <v>1863</v>
+        <v>1849</v>
       </c>
       <c r="G1351" s="1" t="s">
         <v>1280</v>
@@ -56570,14 +56522,14 @@
         <v>182</v>
       </c>
       <c r="J1351" s="1">
-        <v>981.19439560440003</v>
+        <v>981.75252747253001</v>
       </c>
       <c r="K1351" s="1">
-        <v>178577.38</v>
+        <v>178678.96</v>
       </c>
       <c r="L1351" s="1"/>
       <c r="M1351" s="1">
-        <v>0.45381068158406002</v>
+        <v>0.45389619997264002</v>
       </c>
     </row>
     <row r="1352" spans="1:13" x14ac:dyDescent="0.35">
@@ -56597,7 +56549,7 @@
         <v>1286</v>
       </c>
       <c r="F1352" s="1" t="s">
-        <v>1864</v>
+        <v>1850</v>
       </c>
       <c r="G1352" s="1" t="s">
         <v>528</v>
@@ -56609,14 +56561,14 @@
         <v>40</v>
       </c>
       <c r="J1352" s="1">
-        <v>617.62049999999999</v>
+        <v>618.11175000000003</v>
       </c>
       <c r="K1352" s="1">
-        <v>24704.82</v>
+        <v>24724.47</v>
       </c>
       <c r="L1352" s="1"/>
       <c r="M1352" s="1">
-        <v>6.278125036111E-2</v>
+        <v>6.2807299635820005E-2</v>
       </c>
     </row>
     <row r="1353" spans="1:13" x14ac:dyDescent="0.35">
@@ -56648,14 +56600,14 @@
         <v>54</v>
       </c>
       <c r="J1353" s="1">
-        <v>526.09740740740995</v>
+        <v>526.41648148147999</v>
       </c>
       <c r="K1353" s="1">
-        <v>28409.26</v>
+        <v>28426.49</v>
       </c>
       <c r="L1353" s="1"/>
       <c r="M1353" s="1">
-        <v>7.2195177484960002E-2</v>
+        <v>7.2211500389080002E-2</v>
       </c>
     </row>
     <row r="1354" spans="1:13" x14ac:dyDescent="0.35">
@@ -56675,7 +56627,7 @@
         <v>1307</v>
       </c>
       <c r="F1354" s="1" t="s">
-        <v>1865</v>
+        <v>1851</v>
       </c>
       <c r="G1354" s="1" t="s">
         <v>1110</v>
@@ -56687,14 +56639,14 @@
         <v>211</v>
       </c>
       <c r="J1354" s="1">
-        <v>1050.5966824645</v>
+        <v>1051.1928436019</v>
       </c>
       <c r="K1354" s="1">
-        <v>221675.9</v>
+        <v>221801.69</v>
       </c>
       <c r="L1354" s="1"/>
       <c r="M1354" s="1">
-        <v>0.56333501628122995</v>
+        <v>0.56344039745088004</v>
       </c>
     </row>
     <row r="1355" spans="1:13" x14ac:dyDescent="0.35">
@@ -56714,7 +56666,7 @@
         <v>1330</v>
       </c>
       <c r="F1355" s="1" t="s">
-        <v>1860</v>
+        <v>1846</v>
       </c>
       <c r="G1355" s="1" t="s">
         <v>589</v>
@@ -56726,14 +56678,14 @@
         <v>63</v>
       </c>
       <c r="J1355" s="1">
-        <v>1041.1063492062999</v>
+        <v>1042.1265079365</v>
       </c>
       <c r="K1355" s="1">
-        <v>65589.7</v>
+        <v>65653.97</v>
       </c>
       <c r="L1355" s="1"/>
       <c r="M1355" s="1">
-        <v>0.16668016107020001</v>
+        <v>0.16678005902942999</v>
       </c>
     </row>
     <row r="1356" spans="1:13" x14ac:dyDescent="0.35">
@@ -56753,26 +56705,26 @@
         <v>1341</v>
       </c>
       <c r="F1356" s="1" t="s">
-        <v>1866</v>
+        <v>1852</v>
       </c>
       <c r="G1356" s="1" t="s">
         <v>307</v>
       </c>
       <c r="H1356" s="1" t="s">
-        <v>1867</v>
+        <v>1343</v>
       </c>
       <c r="I1356" s="1">
         <v>531</v>
       </c>
       <c r="J1356" s="1">
-        <v>489.94092278719</v>
+        <v>490.52126177024002</v>
       </c>
       <c r="K1356" s="1">
-        <v>260158.63</v>
+        <v>260466.79</v>
       </c>
       <c r="L1356" s="1"/>
       <c r="M1356" s="1">
-        <v>0.12619984831413</v>
+        <v>0.12630867572779</v>
       </c>
     </row>
     <row r="1357" spans="1:13" x14ac:dyDescent="0.35">
@@ -56792,7 +56744,7 @@
         <v>1344</v>
       </c>
       <c r="F1357" s="1" t="s">
-        <v>1868</v>
+        <v>1853</v>
       </c>
       <c r="G1357" s="1" t="s">
         <v>1345</v>
@@ -56804,14 +56756,14 @@
         <v>94</v>
       </c>
       <c r="J1357" s="1">
-        <v>855.14925531915003</v>
+        <v>856.18627659573997</v>
       </c>
       <c r="K1357" s="1">
-        <v>80384.03</v>
+        <v>80481.509999999995</v>
       </c>
       <c r="L1357" s="1"/>
       <c r="M1357" s="1">
-        <v>0.20427632795806999</v>
+        <v>0.20444629606676001</v>
       </c>
     </row>
     <row r="1358" spans="1:13" x14ac:dyDescent="0.35">
@@ -56831,26 +56783,26 @@
         <v>1341</v>
       </c>
       <c r="F1358" s="1" t="s">
-        <v>1840</v>
+        <v>1829</v>
       </c>
       <c r="G1358" s="1" t="s">
         <v>307</v>
       </c>
       <c r="H1358" s="1" t="s">
-        <v>1867</v>
+        <v>1343</v>
       </c>
       <c r="I1358" s="1">
         <v>159</v>
       </c>
       <c r="J1358" s="1">
-        <v>489.94094339623001</v>
+        <v>490.52125786163998</v>
       </c>
       <c r="K1358" s="1">
-        <v>77900.61</v>
+        <v>77992.88</v>
       </c>
       <c r="L1358" s="1"/>
       <c r="M1358" s="1">
-        <v>0.19796532416318999</v>
+        <v>0.19812445660597999</v>
       </c>
     </row>
     <row r="1359" spans="1:13" x14ac:dyDescent="0.35">
@@ -56870,7 +56822,7 @@
         <v>1382</v>
       </c>
       <c r="F1359" s="1" t="s">
-        <v>1869</v>
+        <v>1854</v>
       </c>
       <c r="G1359" s="1" t="s">
         <v>1384</v>
@@ -56882,14 +56834,14 @@
         <v>189</v>
       </c>
       <c r="J1359" s="1">
-        <v>782.53343915343999</v>
+        <v>783.85624338623995</v>
       </c>
       <c r="K1359" s="1">
-        <v>147898.82</v>
+        <v>148148.82999999999</v>
       </c>
       <c r="L1359" s="1"/>
       <c r="M1359" s="1">
-        <v>0.37584863385092998</v>
+        <v>0.37634084599211998</v>
       </c>
     </row>
     <row r="1360" spans="1:13" x14ac:dyDescent="0.35">
@@ -56909,26 +56861,26 @@
         <v>1421</v>
       </c>
       <c r="F1360" s="1" t="s">
-        <v>1870</v>
+        <v>1855</v>
       </c>
       <c r="G1360" s="1" t="s">
         <v>898</v>
       </c>
       <c r="H1360" s="1" t="s">
-        <v>1871</v>
+        <v>1423</v>
       </c>
       <c r="I1360" s="1">
         <v>217</v>
       </c>
       <c r="J1360" s="1">
-        <v>1056.2489861751001</v>
+        <v>1056.9502764977001</v>
       </c>
       <c r="K1360" s="1">
-        <v>229206.03</v>
+        <v>229358.21</v>
       </c>
       <c r="L1360" s="1"/>
       <c r="M1360" s="1">
-        <v>0.58247099771246003</v>
+        <v>0.58263614222697002</v>
       </c>
     </row>
     <row r="1361" spans="1:13" x14ac:dyDescent="0.35">
@@ -56948,7 +56900,7 @@
         <v>1437</v>
       </c>
       <c r="F1361" s="1" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
       <c r="G1361" s="1" t="s">
         <v>1439</v>
@@ -56960,14 +56912,14 @@
         <v>1905</v>
       </c>
       <c r="J1361" s="1">
-        <v>683.39116010499004</v>
+        <v>683.77506036745001</v>
       </c>
       <c r="K1361" s="1">
-        <v>1301860.1599999999</v>
+        <v>1302591.49</v>
       </c>
       <c r="L1361" s="1"/>
       <c r="M1361" s="1">
-        <v>0.63151683539466996</v>
+        <v>0.63166826802060005</v>
       </c>
     </row>
     <row r="1362" spans="1:13" x14ac:dyDescent="0.35">
@@ -56987,7 +56939,7 @@
         <v>1437</v>
       </c>
       <c r="F1362" s="1" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
       <c r="G1362" s="1" t="s">
         <v>1439</v>
@@ -56999,14 +56951,14 @@
         <v>172</v>
       </c>
       <c r="J1362" s="1">
-        <v>683.39116279070004</v>
+        <v>683.77511627906995</v>
       </c>
       <c r="K1362" s="1">
-        <v>117543.28</v>
+        <v>117609.32</v>
       </c>
       <c r="L1362" s="1"/>
       <c r="M1362" s="1">
-        <v>0.29870746234728002</v>
+        <v>0.29876166410061</v>
       </c>
     </row>
     <row r="1363" spans="1:13" x14ac:dyDescent="0.35">
@@ -57026,26 +56978,26 @@
         <v>1444</v>
       </c>
       <c r="F1363" s="1" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
       <c r="G1363" s="1" t="s">
         <v>1446</v>
       </c>
       <c r="H1363" s="1" t="s">
-        <v>1875</v>
+        <v>1447</v>
       </c>
       <c r="I1363" s="1">
         <v>126</v>
       </c>
       <c r="J1363" s="1">
-        <v>817.14730158730003</v>
+        <v>817.16936507936998</v>
       </c>
       <c r="K1363" s="1">
-        <v>102960.56</v>
+        <v>102963.34</v>
       </c>
       <c r="L1363" s="1"/>
       <c r="M1363" s="1">
-        <v>0.26164905045574999</v>
+        <v>0.26155664193752998</v>
       </c>
     </row>
     <row r="1364" spans="1:13" x14ac:dyDescent="0.35">
@@ -57077,14 +57029,14 @@
         <v>23</v>
       </c>
       <c r="J1364" s="1">
-        <v>45.571304347826</v>
+        <v>45.603478260869998</v>
       </c>
       <c r="K1364" s="1">
-        <v>1048.1400000000001</v>
+        <v>1048.8800000000001</v>
       </c>
       <c r="L1364" s="1"/>
       <c r="M1364" s="1">
-        <v>2.6635911434900001E-3</v>
+        <v>2.6644583460000001E-3</v>
       </c>
     </row>
     <row r="1365" spans="1:13" x14ac:dyDescent="0.35">
@@ -57104,26 +57056,26 @@
         <v>1529</v>
       </c>
       <c r="F1365" s="1" t="s">
-        <v>1876</v>
+        <v>1859</v>
       </c>
       <c r="G1365" s="1" t="s">
         <v>1531</v>
       </c>
       <c r="H1365" s="1" t="s">
-        <v>1877</v>
+        <v>1532</v>
       </c>
       <c r="I1365" s="1">
         <v>82</v>
       </c>
       <c r="J1365" s="1">
-        <v>1058.5614634146</v>
+        <v>1059.166097561</v>
       </c>
       <c r="K1365" s="1">
-        <v>86802.04</v>
+        <v>86851.62</v>
       </c>
       <c r="L1365" s="1"/>
       <c r="M1365" s="1">
-        <v>0.22058612874311001</v>
+        <v>0.22062821654809001</v>
       </c>
     </row>
     <row r="1366" spans="1:13" x14ac:dyDescent="0.35">
@@ -57155,14 +57107,14 @@
         <v>2</v>
       </c>
       <c r="J1366" s="1">
-        <v>156.69499999999999</v>
+        <v>152.32499999999999</v>
       </c>
       <c r="K1366" s="1">
-        <v>313.39</v>
+        <v>304.64999999999998</v>
       </c>
       <c r="L1366" s="1"/>
       <c r="M1366" s="1">
-        <v>7.9640394265999997E-4</v>
+        <v>7.7389904957E-4</v>
       </c>
     </row>
     <row r="1367" spans="1:13" x14ac:dyDescent="0.35">
@@ -57182,7 +57134,7 @@
         <v>1549</v>
       </c>
       <c r="F1367" s="1" t="s">
-        <v>1878</v>
+        <v>1860</v>
       </c>
       <c r="G1367" s="1" t="s">
         <v>1551</v>
@@ -57194,14 +57146,14 @@
         <v>426</v>
       </c>
       <c r="J1367" s="1">
-        <v>1060.9727934272</v>
+        <v>1061.7199061033</v>
       </c>
       <c r="K1367" s="1">
-        <v>451974.41</v>
+        <v>452292.68</v>
       </c>
       <c r="L1367" s="1"/>
       <c r="M1367" s="1">
-        <v>1.1485822843893001</v>
+        <v>1.1489541282725</v>
       </c>
     </row>
     <row r="1368" spans="1:13" x14ac:dyDescent="0.35">
@@ -57221,7 +57173,7 @@
         <v>1555</v>
       </c>
       <c r="F1368" s="1" t="s">
-        <v>1879</v>
+        <v>1861</v>
       </c>
       <c r="G1368" s="1" t="s">
         <v>1557</v>
@@ -57233,14 +57185,14 @@
         <v>173</v>
       </c>
       <c r="J1368" s="1">
-        <v>1090.0158959538001</v>
+        <v>1090.8497687861</v>
       </c>
       <c r="K1368" s="1">
-        <v>188572.75</v>
+        <v>188717.01</v>
       </c>
       <c r="L1368" s="1"/>
       <c r="M1368" s="1">
-        <v>0.47921146679205001</v>
+        <v>0.47939574815746999</v>
       </c>
     </row>
     <row r="1369" spans="1:13" x14ac:dyDescent="0.35">
@@ -57260,7 +57212,7 @@
         <v>1562</v>
       </c>
       <c r="F1369" s="1" t="s">
-        <v>1880</v>
+        <v>1862</v>
       </c>
       <c r="G1369" s="1" t="s">
         <v>1563</v>
@@ -57272,14 +57224,14 @@
         <v>527</v>
       </c>
       <c r="J1369" s="1">
-        <v>968.96045540797002</v>
+        <v>969.80398481972998</v>
       </c>
       <c r="K1369" s="1">
-        <v>510642.16</v>
+        <v>511086.7</v>
       </c>
       <c r="L1369" s="1"/>
       <c r="M1369" s="1">
-        <v>0.24770642102014001</v>
+        <v>0.24784228445817</v>
       </c>
     </row>
     <row r="1370" spans="1:13" x14ac:dyDescent="0.35">
@@ -57299,7 +57251,7 @@
         <v>1562</v>
       </c>
       <c r="F1370" s="1" t="s">
-        <v>1881</v>
+        <v>1863</v>
       </c>
       <c r="G1370" s="1" t="s">
         <v>1563</v>
@@ -57311,14 +57263,14 @@
         <v>249</v>
       </c>
       <c r="J1370" s="1">
-        <v>968.96044176707005</v>
+        <v>969.80397590360997</v>
       </c>
       <c r="K1370" s="1">
-        <v>241271.15</v>
+        <v>241481.19</v>
       </c>
       <c r="L1370" s="1"/>
       <c r="M1370" s="1">
-        <v>0.61313154570904005</v>
+        <v>0.61343201519569002</v>
       </c>
     </row>
     <row r="1371" spans="1:13" x14ac:dyDescent="0.35">
@@ -57338,7 +57290,7 @@
         <v>1567</v>
       </c>
       <c r="F1371" s="1" t="s">
-        <v>1882</v>
+        <v>1864</v>
       </c>
       <c r="G1371" s="1" t="s">
         <v>1569</v>
@@ -57350,14 +57302,14 @@
         <v>1650</v>
       </c>
       <c r="J1371" s="1">
-        <v>163.31908484848</v>
+        <v>163.44502424242</v>
       </c>
       <c r="K1371" s="1">
-        <v>269476.49</v>
+        <v>269684.28999999998</v>
       </c>
       <c r="L1371" s="1"/>
       <c r="M1371" s="1">
-        <v>0.13071983105932</v>
+        <v>0.13077853623676</v>
       </c>
     </row>
     <row r="1372" spans="1:13" x14ac:dyDescent="0.35">
@@ -57389,14 +57341,14 @@
         <v>283</v>
       </c>
       <c r="J1372" s="1">
-        <v>314.13388692580003</v>
+        <v>314.23685512367001</v>
       </c>
       <c r="K1372" s="1">
-        <v>88899.89</v>
+        <v>88929.03</v>
       </c>
       <c r="L1372" s="1"/>
       <c r="M1372" s="1">
-        <v>0.22591730080062999</v>
+        <v>0.22590543835856999</v>
       </c>
     </row>
     <row r="1373" spans="1:13" x14ac:dyDescent="0.35">
@@ -57416,7 +57368,7 @@
         <v>1567</v>
       </c>
       <c r="F1373" s="1" t="s">
-        <v>1883</v>
+        <v>1865</v>
       </c>
       <c r="G1373" s="1" t="s">
         <v>1569</v>
@@ -57428,14 +57380,14 @@
         <v>156</v>
       </c>
       <c r="J1373" s="1">
-        <v>163.31910256410001</v>
+        <v>163.44499999999999</v>
       </c>
       <c r="K1373" s="1">
-        <v>25477.78</v>
+        <v>25497.42</v>
       </c>
       <c r="L1373" s="1"/>
       <c r="M1373" s="1">
-        <v>6.4745538920150003E-2</v>
+        <v>6.4770816032879999E-2</v>
       </c>
     </row>
     <row r="1374" spans="1:13" x14ac:dyDescent="0.35">
@@ -57455,7 +57407,7 @@
         <v>1573</v>
       </c>
       <c r="F1374" s="1" t="s">
-        <v>1884</v>
+        <v>1866</v>
       </c>
       <c r="G1374" s="1" t="s">
         <v>1575</v>
@@ -57467,14 +57419,14 @@
         <v>158</v>
       </c>
       <c r="J1374" s="1">
-        <v>573.17639240506003</v>
+        <v>573.57689873417996</v>
       </c>
       <c r="K1374" s="1">
-        <v>90561.87</v>
+        <v>90625.15</v>
       </c>
       <c r="L1374" s="1"/>
       <c r="M1374" s="1">
-        <v>0.23014081598816</v>
+        <v>0.23021407336908001</v>
       </c>
     </row>
     <row r="1375" spans="1:13" x14ac:dyDescent="0.35">
@@ -57494,7 +57446,7 @@
         <v>1579</v>
       </c>
       <c r="F1375" s="1" t="s">
-        <v>1885</v>
+        <v>1867</v>
       </c>
       <c r="G1375" s="1" t="s">
         <v>1580</v>
@@ -57506,14 +57458,14 @@
         <v>258</v>
       </c>
       <c r="J1375" s="1">
-        <v>1161.8681007752</v>
+        <v>1162.885503876</v>
       </c>
       <c r="K1375" s="1">
-        <v>299761.96999999997</v>
+        <v>300024.46000000002</v>
       </c>
       <c r="L1375" s="1"/>
       <c r="M1375" s="1">
-        <v>0.14541095617065</v>
+        <v>0.14549145489352</v>
       </c>
     </row>
     <row r="1376" spans="1:13" x14ac:dyDescent="0.35">
@@ -57533,7 +57485,7 @@
         <v>1579</v>
       </c>
       <c r="F1376" s="1" t="s">
-        <v>1886</v>
+        <v>1868</v>
       </c>
       <c r="G1376" s="1" t="s">
         <v>1580</v>
@@ -57545,14 +57497,14 @@
         <v>185</v>
       </c>
       <c r="J1376" s="1">
-        <v>1161.8681081080999</v>
+        <v>1162.8854594595</v>
       </c>
       <c r="K1376" s="1">
-        <v>214945.6</v>
+        <v>215133.81</v>
       </c>
       <c r="L1376" s="1"/>
       <c r="M1376" s="1">
-        <v>0.54623160693417006</v>
+        <v>0.54650205510841998</v>
       </c>
     </row>
     <row r="1377" spans="1:13" x14ac:dyDescent="0.35">
@@ -57569,7 +57521,7 @@
         <v>1745</v>
       </c>
       <c r="E1377" s="1" t="s">
-        <v>1887</v>
+        <v>1869</v>
       </c>
       <c r="F1377" s="1" t="s">
         <v>35</v>
@@ -57584,14 +57536,14 @@
         <v>256</v>
       </c>
       <c r="J1377" s="1">
-        <v>1073.0054687500001</v>
+        <v>1073.6160937499999</v>
       </c>
       <c r="K1377" s="1">
-        <v>274689.40000000002</v>
+        <v>274845.71999999997</v>
       </c>
       <c r="L1377" s="1"/>
       <c r="M1377" s="1">
-        <v>0.69805584468713999</v>
+        <v>0.69818756437100005</v>
       </c>
     </row>
     <row r="1378" spans="1:13" x14ac:dyDescent="0.35">
@@ -57623,14 +57575,14 @@
         <v>317</v>
       </c>
       <c r="J1378" s="1">
-        <v>1002.4165930599</v>
+        <v>1002.9868138801</v>
       </c>
       <c r="K1378" s="1">
-        <v>317766.06</v>
+        <v>317946.82</v>
       </c>
       <c r="L1378" s="1"/>
       <c r="M1378" s="1">
-        <v>0.80752462754734999</v>
+        <v>0.80767681539776004</v>
       </c>
     </row>
     <row r="1379" spans="1:13" x14ac:dyDescent="0.35">
@@ -57650,7 +57602,7 @@
         <v>1645</v>
       </c>
       <c r="F1379" s="1" t="s">
-        <v>1888</v>
+        <v>1870</v>
       </c>
       <c r="G1379" s="1" t="s">
         <v>394</v>
@@ -57662,14 +57614,14 @@
         <v>988</v>
       </c>
       <c r="J1379" s="1">
-        <v>1280.8069028340001</v>
+        <v>1281.5238259109001</v>
       </c>
       <c r="K1379" s="1">
-        <v>1265437.22</v>
+        <v>1266145.54</v>
       </c>
       <c r="L1379" s="1"/>
       <c r="M1379" s="1">
-        <v>0.61384850164324001</v>
+        <v>0.61399446139004998</v>
       </c>
     </row>
     <row r="1380" spans="1:13" x14ac:dyDescent="0.35">
@@ -57689,7 +57641,7 @@
         <v>1645</v>
       </c>
       <c r="F1380" s="1" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
       <c r="G1380" s="1" t="s">
         <v>394</v>
@@ -57701,14 +57653,14 @@
         <v>92</v>
       </c>
       <c r="J1380" s="1">
-        <v>1280.8068478261</v>
+        <v>1281.5238043478</v>
       </c>
       <c r="K1380" s="1">
-        <v>117834.23</v>
+        <v>117900.19</v>
       </c>
       <c r="L1380" s="1"/>
       <c r="M1380" s="1">
-        <v>0.29944684052499998</v>
+        <v>0.29950055796750003</v>
       </c>
     </row>
     <row r="1381" spans="1:13" x14ac:dyDescent="0.35">
@@ -57740,14 +57692,14 @@
         <v>311</v>
       </c>
       <c r="J1381" s="1">
-        <v>1008.188778135</v>
+        <v>1008.7568167203</v>
       </c>
       <c r="K1381" s="1">
-        <v>313546.71000000002</v>
+        <v>313723.37</v>
       </c>
       <c r="L1381" s="1"/>
       <c r="M1381" s="1">
-        <v>0.79680218274866998</v>
+        <v>0.79694803174145001</v>
       </c>
     </row>
     <row r="1382" spans="1:13" x14ac:dyDescent="0.35">
@@ -57764,7 +57716,7 @@
         <v>1742</v>
       </c>
       <c r="E1382" s="1" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
       <c r="F1382" s="1" t="s">
         <v>35</v>
@@ -57779,14 +57731,14 @@
         <v>890</v>
       </c>
       <c r="J1382" s="1">
-        <v>1119.3661348314999</v>
+        <v>1119.9948089888001</v>
       </c>
       <c r="K1382" s="1">
-        <v>996235.86</v>
+        <v>996795.38</v>
       </c>
       <c r="L1382" s="1"/>
       <c r="M1382" s="1">
-        <v>0.48326213286524999</v>
+        <v>0.48337795547515999</v>
       </c>
     </row>
     <row r="1383" spans="1:13" x14ac:dyDescent="0.35">
@@ -57803,7 +57755,7 @@
         <v>1745</v>
       </c>
       <c r="E1383" s="1" t="s">
-        <v>1891</v>
+        <v>1873</v>
       </c>
       <c r="F1383" s="1" t="s">
         <v>35</v>
@@ -57818,14 +57770,14 @@
         <v>180</v>
       </c>
       <c r="J1383" s="1">
-        <v>1119.3661111111001</v>
+        <v>1119.9948333333</v>
       </c>
       <c r="K1383" s="1">
-        <v>201485.9</v>
+        <v>201599.07</v>
       </c>
       <c r="L1383" s="1"/>
       <c r="M1383" s="1">
-        <v>0.51202707536966996</v>
+        <v>0.51211990371455995</v>
       </c>
     </row>
     <row r="1384" spans="1:13" x14ac:dyDescent="0.35">
@@ -57842,7 +57794,7 @@
         <v>1742</v>
       </c>
       <c r="E1384" s="1" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
       <c r="F1384" s="1" t="s">
         <v>35</v>
@@ -57857,14 +57809,14 @@
         <v>2870</v>
       </c>
       <c r="J1384" s="1">
-        <v>1110.5695505225999</v>
+        <v>1111.1971324041999</v>
       </c>
       <c r="K1384" s="1">
-        <v>3187334.61</v>
+        <v>3189135.77</v>
       </c>
       <c r="L1384" s="1"/>
       <c r="M1384" s="1">
-        <v>1.5461380016815001</v>
+        <v>1.5465139176661</v>
       </c>
     </row>
     <row r="1385" spans="1:13" x14ac:dyDescent="0.35">
@@ -57881,7 +57833,7 @@
         <v>1745</v>
       </c>
       <c r="E1385" s="1" t="s">
-        <v>1893</v>
+        <v>1875</v>
       </c>
       <c r="F1385" s="1" t="s">
         <v>35</v>
@@ -57896,14 +57848,14 @@
         <v>428000</v>
       </c>
       <c r="J1385" s="1">
-        <v>1.0012418691589</v>
+        <v>1.0018125934579001</v>
       </c>
       <c r="K1385" s="1">
-        <v>428531.52</v>
+        <v>428775.79</v>
       </c>
       <c r="L1385" s="1"/>
       <c r="M1385" s="1">
-        <v>1.0890079201042</v>
+        <v>1.08921443085</v>
       </c>
     </row>
     <row r="1386" spans="1:13" x14ac:dyDescent="0.35">
@@ -57920,7 +57872,7 @@
         <v>1745</v>
       </c>
       <c r="E1386" s="1" t="s">
-        <v>1894</v>
+        <v>1876</v>
       </c>
       <c r="F1386" s="1" t="s">
         <v>35</v>
@@ -57935,14 +57887,14 @@
         <v>143</v>
       </c>
       <c r="J1386" s="1">
-        <v>1110.5695804196</v>
+        <v>1111.1971328671</v>
       </c>
       <c r="K1386" s="1">
-        <v>158811.45000000001</v>
+        <v>158901.19</v>
       </c>
       <c r="L1386" s="1"/>
       <c r="M1386" s="1">
-        <v>0.40358041073204998</v>
+        <v>0.40365494802594998</v>
       </c>
     </row>
     <row r="1387" spans="1:13" x14ac:dyDescent="0.35">
@@ -57974,14 +57926,14 @@
         <v>886</v>
       </c>
       <c r="J1387" s="1">
-        <v>1138.7653273138001</v>
+        <v>1139.4276862301999</v>
       </c>
       <c r="K1387" s="1">
-        <v>1008946.08</v>
+        <v>1009532.93</v>
       </c>
       <c r="L1387" s="1"/>
       <c r="M1387" s="1">
-        <v>0.48942770898332</v>
+        <v>0.48955480079397001</v>
       </c>
     </row>
     <row r="1388" spans="1:13" x14ac:dyDescent="0.35">
@@ -58013,14 +57965,14 @@
         <v>176</v>
       </c>
       <c r="J1388" s="1">
-        <v>1138.7653409090999</v>
+        <v>1139.4276704545</v>
       </c>
       <c r="K1388" s="1">
-        <v>200422.7</v>
+        <v>200539.27</v>
       </c>
       <c r="L1388" s="1"/>
       <c r="M1388" s="1">
-        <v>0.50932521292403998</v>
+        <v>0.50942770541246996</v>
       </c>
     </row>
     <row r="1389" spans="1:13" x14ac:dyDescent="0.35">
@@ -58052,14 +58004,14 @@
         <v>38100000</v>
       </c>
       <c r="J1389" s="1">
-        <v>1.0082670078740001E-2</v>
+        <v>1.0088450131234E-2</v>
       </c>
       <c r="K1389" s="1">
-        <v>384149.73</v>
+        <v>384369.95</v>
       </c>
       <c r="L1389" s="1"/>
       <c r="M1389" s="1">
-        <v>0.97622246894669995</v>
+        <v>0.97641076312886999</v>
       </c>
     </row>
     <row r="1390" spans="1:13" x14ac:dyDescent="0.35">
@@ -58088,11 +58040,11 @@
       <c r="I1390" s="1"/>
       <c r="J1390" s="1"/>
       <c r="K1390" s="1">
-        <v>667.09</v>
+        <v>2380.09</v>
       </c>
       <c r="L1390" s="1"/>
       <c r="M1390" s="1">
-        <v>3.2359740214000002E-4</v>
+        <v>1.1541817519699999E-3</v>
       </c>
     </row>
     <row r="1391" spans="1:13" x14ac:dyDescent="0.35">
@@ -58121,11 +58073,11 @@
       <c r="I1391" s="1"/>
       <c r="J1391" s="1"/>
       <c r="K1391" s="1">
-        <v>12130.43</v>
+        <v>11364.22</v>
       </c>
       <c r="L1391" s="1"/>
       <c r="M1391" s="1">
-        <v>3.082651736859E-2</v>
+        <v>2.886840327285E-2</v>
       </c>
     </row>
     <row r="1392" spans="1:13" x14ac:dyDescent="0.35">
@@ -58155,14 +58107,14 @@
         <v>23</v>
       </c>
       <c r="J1392" s="1">
-        <v>5.24</v>
+        <v>5.16</v>
       </c>
       <c r="K1392" s="1">
-        <v>120.52</v>
+        <v>118.68</v>
       </c>
       <c r="L1392" s="1"/>
       <c r="M1392" s="1">
-        <v>3.0627206729000003E-4</v>
+        <v>3.0148150074999999E-4</v>
       </c>
     </row>
     <row r="1393" spans="1:13" x14ac:dyDescent="0.35">
@@ -58182,7 +58134,7 @@
         <v>1727</v>
       </c>
       <c r="F1393" s="1" t="s">
-        <v>1895</v>
+        <v>1877</v>
       </c>
       <c r="G1393" s="1"/>
       <c r="H1393" s="1" t="s">
@@ -58192,14 +58144,14 @@
         <v>21411</v>
       </c>
       <c r="J1393" s="1">
-        <v>19.38</v>
+        <v>19.36</v>
       </c>
       <c r="K1393" s="1">
-        <v>414945.18</v>
+        <v>414516.96</v>
       </c>
       <c r="L1393" s="1"/>
       <c r="M1393" s="1">
-        <v>0.20128495746875999</v>
+        <v>0.20101252940656</v>
       </c>
     </row>
     <row r="1394" spans="1:13" x14ac:dyDescent="0.35">
@@ -58219,7 +58171,7 @@
         <v>1727</v>
       </c>
       <c r="F1394" s="1" t="s">
-        <v>1896</v>
+        <v>1878</v>
       </c>
       <c r="G1394" s="1"/>
       <c r="H1394" s="1" t="s">
@@ -58229,14 +58181,14 @@
         <v>6000</v>
       </c>
       <c r="J1394" s="1">
-        <v>19.38</v>
+        <v>19.36</v>
       </c>
       <c r="K1394" s="1">
-        <v>116280</v>
+        <v>116160</v>
       </c>
       <c r="L1394" s="1"/>
       <c r="M1394" s="1">
-        <v>0.29549714557686002</v>
+        <v>0.29507997241993</v>
       </c>
     </row>
     <row r="1395" spans="1:13" x14ac:dyDescent="0.35">
@@ -58266,14 +58218,14 @@
         <v>37</v>
       </c>
       <c r="J1395" s="1">
-        <v>5.23</v>
+        <v>5.15</v>
       </c>
       <c r="K1395" s="1">
-        <v>193.57</v>
+        <v>190.61</v>
       </c>
       <c r="L1395" s="1"/>
       <c r="M1395" s="1">
-        <v>4.9191075395E-4</v>
+        <v>4.8420448986999999E-4</v>
       </c>
     </row>
   </sheetData>
